--- a/데이터/중도탈락 학생 현황_학과별/자연과학계열/전처리 후/2023_전문대_자연과학계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/자연과학계열/전처리 후/2023_전문대_자연과학계열.xlsx
@@ -516,7 +516,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>3.58</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>40.91</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="8">
@@ -789,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>10.23</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="10">
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.41</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="11">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>4.81</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="13">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.59</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="14">
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>53.85</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>11.96</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="17">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>50</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>22.55</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="20">
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21">
@@ -1296,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>8.27</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -1491,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="28">
@@ -1569,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>1.07</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="30">
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="31">
@@ -1686,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="33">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.92</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="36">
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1959,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>6.78</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="40">
@@ -1998,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>8.94</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="41">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2115,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>6.05</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="44">
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>8.33</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="46">
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>7.46</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="48">
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>66.67</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="49">
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="52">
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="54">
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>18.03</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="55">
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>6.56</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="56">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2699,8 +2699,10 @@
       <c r="H58" t="n">
         <v>2</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2738,8 +2740,10 @@
       <c r="H59" t="n">
         <v>6</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2778,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="I60" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="61">
@@ -2817,7 +2821,7 @@
         <v>7</v>
       </c>
       <c r="I61" t="n">
-        <v>4.67</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="62">
@@ -2895,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>3.88</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="64">
@@ -2934,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2973,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>4.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="66">
@@ -3090,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3129,7 +3133,7 @@
         <v>8</v>
       </c>
       <c r="I69" t="n">
-        <v>20.97</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="70">
@@ -3168,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="I70" t="n">
-        <v>14.09</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="71">
@@ -3285,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>8.33</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="74">
@@ -3324,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3402,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>6.67</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="77">
@@ -3441,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3519,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>6.82</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="80">
@@ -3597,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="I81" t="n">
-        <v>5.61</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="82">
@@ -3675,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="I83" t="n">
-        <v>12.12</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="84">
@@ -3714,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>27.27</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="85">
@@ -3753,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>11.54</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="86">
@@ -3792,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>3.61</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="87">
@@ -3909,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="I89" t="n">
-        <v>6.67</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="90">
@@ -3948,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>20.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3986,8 +3990,10 @@
       <c r="H91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4025,8 +4031,10 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4064,8 +4072,10 @@
       <c r="H93" t="n">
         <v>2</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4103,8 +4113,10 @@
       <c r="H94" t="n">
         <v>6</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4142,8 +4154,10 @@
       <c r="H95" t="n">
         <v>2</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4181,8 +4195,10 @@
       <c r="H96" t="n">
         <v>2</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4494,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="105">
@@ -4650,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="109">
@@ -4689,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4806,7 +4822,7 @@
         <v>23</v>
       </c>
       <c r="I112" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="113">
@@ -4884,7 +4900,7 @@
         <v>6</v>
       </c>
       <c r="I114" t="n">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="115">
@@ -4923,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>11.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="116">
@@ -5001,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5040,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>66.67</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="119">
@@ -5157,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="I121" t="n">
-        <v>7.66</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="122">
@@ -5313,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="I125" t="n">
-        <v>3.01</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="126">
@@ -5391,7 +5407,7 @@
         <v>15</v>
       </c>
       <c r="I127" t="n">
-        <v>3.16</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="128">
@@ -5469,7 +5485,7 @@
         <v>10</v>
       </c>
       <c r="I129" t="n">
-        <v>2.29</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="130">
@@ -5508,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>40</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="131">
@@ -5547,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>9.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5586,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>59.09</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="133">
@@ -5625,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>35.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5664,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5702,9 +5718,7 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5742,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>16.48</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="137">
@@ -5781,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5859,7 +5873,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>13.16</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="140">
@@ -5898,7 +5912,7 @@
         <v>5</v>
       </c>
       <c r="I140" t="n">
-        <v>9.380000000000001</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="141">
@@ -5937,7 +5951,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>6.67</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="142">
@@ -5976,7 +5990,7 @@
         <v>31</v>
       </c>
       <c r="I142" t="n">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="143">
@@ -6015,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>5.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6054,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="I144" t="n">
-        <v>18.46</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="145">
@@ -6093,7 +6107,7 @@
         <v>9</v>
       </c>
       <c r="I145" t="n">
-        <v>15.91</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="146">
@@ -6132,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>7.69</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="147">
@@ -6210,7 +6224,7 @@
         <v>15</v>
       </c>
       <c r="I148" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="149">
@@ -6249,7 +6263,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>2.95</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="150">
@@ -6327,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>6.35</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="152">
@@ -6366,7 +6380,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>10.81</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="153">
@@ -6405,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="154">
@@ -6483,7 +6497,7 @@
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>9.35</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="156">
@@ -6522,7 +6536,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="n">
-        <v>5.5</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="157">
@@ -6561,7 +6575,7 @@
         <v>7</v>
       </c>
       <c r="I157" t="n">
-        <v>9.09</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="158">
@@ -6639,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6678,7 +6692,7 @@
         <v>20</v>
       </c>
       <c r="I160" t="n">
-        <v>3.21</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="161">
@@ -6717,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="162">
@@ -6756,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="I162" t="n">
-        <v>8.65</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="163">
@@ -6795,7 +6809,7 @@
         <v>10</v>
       </c>
       <c r="I163" t="n">
-        <v>11.32</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="164">
@@ -6912,7 +6926,7 @@
         <v>5</v>
       </c>
       <c r="I166" t="n">
-        <v>8.24</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="167">
@@ -6951,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6990,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -7029,7 +7043,7 @@
         <v>6</v>
       </c>
       <c r="I169" t="n">
-        <v>10.1</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="170">
@@ -7068,7 +7082,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>4.17</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="171">
@@ -7224,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>8.57</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="175">
@@ -7263,7 +7277,7 @@
         <v>18</v>
       </c>
       <c r="I175" t="n">
-        <v>8.529999999999999</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="176">
@@ -7380,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7575,7 +7589,7 @@
         <v>7</v>
       </c>
       <c r="I183" t="n">
-        <v>10.29</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="184">
@@ -7614,7 +7628,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>11.54</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="185">
@@ -7653,7 +7667,7 @@
         <v>5</v>
       </c>
       <c r="I185" t="n">
-        <v>50</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="186">
@@ -7692,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -7731,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7809,7 +7823,7 @@
         <v>19</v>
       </c>
       <c r="I189" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="190">
@@ -7848,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>5.71</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="191">
@@ -7887,7 +7901,7 @@
         <v>10</v>
       </c>
       <c r="I191" t="n">
-        <v>3.25</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="192">
@@ -7965,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="I193" t="n">
-        <v>4.35</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="194">
@@ -8004,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -8043,7 +8057,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="n">
-        <v>13.56</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="196">
@@ -8082,7 +8096,7 @@
         <v>18</v>
       </c>
       <c r="I196" t="n">
-        <v>6.81</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="197">
@@ -8160,7 +8174,7 @@
         <v>9</v>
       </c>
       <c r="I198" t="n">
-        <v>12.4</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="199">
@@ -8199,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>4.42</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="200">
@@ -8238,7 +8252,7 @@
         <v>7</v>
       </c>
       <c r="I200" t="n">
-        <v>10.24</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="201">
@@ -8277,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -8316,7 +8330,7 @@
         <v>7</v>
       </c>
       <c r="I202" t="n">
-        <v>3.13</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="203">
@@ -8355,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8394,7 +8408,7 @@
         <v>7</v>
       </c>
       <c r="I204" t="n">
-        <v>3.48</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="205">
@@ -8433,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8472,7 +8486,7 @@
         <v>19</v>
       </c>
       <c r="I206" t="n">
-        <v>9.18</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="207">
@@ -8511,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -8550,7 +8564,7 @@
         <v>16</v>
       </c>
       <c r="I208" t="n">
-        <v>4.8</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="209">
@@ -8667,7 +8681,7 @@
         <v>16</v>
       </c>
       <c r="I211" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="212">
@@ -8745,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>8.220000000000001</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="214">
@@ -8784,7 +8798,7 @@
         <v>5</v>
       </c>
       <c r="I214" t="n">
-        <v>40.54</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="215">
@@ -8862,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -8901,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -8940,7 +8954,7 @@
         <v>8</v>
       </c>
       <c r="I218" t="n">
-        <v>5.26</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="219">
@@ -9018,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="221">
@@ -9057,7 +9071,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222">
@@ -9096,7 +9110,7 @@
         <v>6</v>
       </c>
       <c r="I222" t="n">
-        <v>7.37</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="223">
@@ -9135,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -9173,9 +9187,7 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9213,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
@@ -9252,7 +9264,7 @@
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>6.45</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="227">
@@ -9330,7 +9342,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>12.12</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="229">
@@ -9369,7 +9381,7 @@
         <v>6</v>
       </c>
       <c r="I229" t="n">
-        <v>6.42</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="230">
@@ -9408,7 +9420,7 @@
         <v>11</v>
       </c>
       <c r="I230" t="n">
-        <v>10.76</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="231">
@@ -9447,7 +9459,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>14.71</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="232">
@@ -9486,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="I232" t="n">
-        <v>3.1</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="233">
@@ -9564,7 +9576,7 @@
         <v>7</v>
       </c>
       <c r="I234" t="n">
-        <v>10.9</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="235">
@@ -9603,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>11.24</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="236">
@@ -9642,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -9759,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>9.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -9876,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>6.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -9915,7 +9927,7 @@
         <v>6</v>
       </c>
       <c r="I243" t="n">
-        <v>29.17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244">
@@ -9954,7 +9966,7 @@
         <v>6</v>
       </c>
       <c r="I244" t="n">
-        <v>7.09</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="245">
@@ -9993,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
@@ -10032,7 +10044,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>6.51</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="247">
@@ -10071,7 +10083,7 @@
         <v>41</v>
       </c>
       <c r="I247" t="n">
-        <v>43.75</v>
+        <v>42.71</v>
       </c>
     </row>
     <row r="248">
@@ -10110,7 +10122,7 @@
         <v>22</v>
       </c>
       <c r="I248" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="249">
@@ -10188,7 +10200,7 @@
         <v>8</v>
       </c>
       <c r="I250" t="n">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="251">
@@ -10227,7 +10239,7 @@
         <v>7</v>
       </c>
       <c r="I251" t="n">
-        <v>10</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="252">
@@ -10305,7 +10317,7 @@
         <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>12.24</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="254">
@@ -10422,7 +10434,7 @@
         <v>6</v>
       </c>
       <c r="I256" t="n">
-        <v>13.45</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="257">
@@ -10461,7 +10473,7 @@
         <v>6</v>
       </c>
       <c r="I257" t="n">
-        <v>19.23</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="258">
@@ -10539,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="n">
-        <v>10.53</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="260">
@@ -10578,7 +10590,7 @@
         <v>25</v>
       </c>
       <c r="I260" t="n">
-        <v>3.91</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="261">
@@ -10617,7 +10629,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>2.17</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="262">
@@ -10695,7 +10707,7 @@
         <v>9</v>
       </c>
       <c r="I263" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
@@ -10734,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -10773,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -10812,7 +10824,7 @@
         <v>8</v>
       </c>
       <c r="I266" t="n">
-        <v>15.48</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="267">
@@ -10851,7 +10863,7 @@
         <v>9</v>
       </c>
       <c r="I267" t="n">
-        <v>18.42</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="268">
@@ -10890,7 +10902,7 @@
         <v>6</v>
       </c>
       <c r="I268" t="n">
-        <v>9.52</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="269">
@@ -10968,7 +10980,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>5.88</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="271">
@@ -11124,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -11241,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="278">
@@ -11280,7 +11292,7 @@
         <v>20</v>
       </c>
       <c r="I278" t="n">
-        <v>3.19</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="279">
@@ -11319,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>9.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -11358,7 +11370,7 @@
         <v>10</v>
       </c>
       <c r="I280" t="n">
-        <v>6.1</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="281">
@@ -11435,9 +11447,7 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -11475,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -11553,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="286">
@@ -11592,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>9.09</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="287">
@@ -11670,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -11709,7 +11719,7 @@
         <v>8</v>
       </c>
       <c r="I289" t="n">
-        <v>14.67</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="290">
@@ -11748,7 +11758,7 @@
         <v>3</v>
       </c>
       <c r="I290" t="n">
-        <v>52.38</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="291">
@@ -11826,7 +11836,7 @@
         <v>10</v>
       </c>
       <c r="I292" t="n">
-        <v>23.6</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="293">
@@ -11865,7 +11875,7 @@
         <v>8</v>
       </c>
       <c r="I293" t="n">
-        <v>35.65</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="294">
@@ -11904,7 +11914,7 @@
         <v>5</v>
       </c>
       <c r="I294" t="n">
-        <v>14.81</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="295">
@@ -11943,7 +11953,7 @@
         <v>9</v>
       </c>
       <c r="I295" t="n">
-        <v>19.19</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="296">
@@ -11982,7 +11992,7 @@
         <v>22</v>
       </c>
       <c r="I296" t="n">
-        <v>24.47</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="297">
@@ -12060,7 +12070,7 @@
         <v>13</v>
       </c>
       <c r="I298" t="n">
-        <v>13.87</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="299">
@@ -12099,7 +12109,7 @@
         <v>20</v>
       </c>
       <c r="I299" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="300">
@@ -12138,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="I300" t="n">
-        <v>22.67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -12177,7 +12187,7 @@
         <v>4</v>
       </c>
       <c r="I301" t="n">
-        <v>3.36</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="302">
@@ -12216,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>12.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -12255,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -12333,7 +12343,7 @@
         <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>39.29</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="306">
@@ -12372,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>7.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -12411,7 +12421,7 @@
         <v>3</v>
       </c>
       <c r="I307" t="n">
-        <v>13.27</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="308">
@@ -12450,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="I308" t="n">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="309">
@@ -12489,7 +12499,7 @@
         <v>9</v>
       </c>
       <c r="I309" t="n">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="310">
@@ -12567,7 +12577,7 @@
         <v>20</v>
       </c>
       <c r="I311" t="n">
-        <v>2.27</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="312">
@@ -12606,7 +12616,7 @@
         <v>11</v>
       </c>
       <c r="I312" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="313">
@@ -12645,7 +12655,7 @@
         <v>7</v>
       </c>
       <c r="I313" t="n">
-        <v>6.02</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="314">
@@ -12684,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="n">
-        <v>2.53</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="315">
@@ -12762,7 +12772,7 @@
         <v>37</v>
       </c>
       <c r="I316" t="n">
-        <v>6.01</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="317">
@@ -12801,7 +12811,7 @@
         <v>5</v>
       </c>
       <c r="I317" t="n">
-        <v>6.62</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="318">
@@ -12840,7 +12850,7 @@
         <v>5</v>
       </c>
       <c r="I318" t="n">
-        <v>16.98</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="319">
@@ -12879,7 +12889,7 @@
         <v>22</v>
       </c>
       <c r="I319" t="n">
-        <v>8.91</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="320">
@@ -12957,7 +12967,7 @@
         <v>11</v>
       </c>
       <c r="I321" t="n">
-        <v>10.91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
@@ -12996,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>8.06</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="323">
@@ -13035,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="I323" t="n">
-        <v>3.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="324">
@@ -13073,8 +13083,10 @@
       <c r="H324" t="n">
         <v>2</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -13152,7 +13164,7 @@
         <v>4</v>
       </c>
       <c r="I326" t="n">
-        <v>28.57</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="327">
@@ -13191,7 +13203,7 @@
         <v>17</v>
       </c>
       <c r="I327" t="n">
-        <v>7.58</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="328">
@@ -13269,7 +13281,7 @@
         <v>9</v>
       </c>
       <c r="I329" t="n">
-        <v>8.699999999999999</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="330">
@@ -13347,7 +13359,7 @@
         <v>29</v>
       </c>
       <c r="I331" t="n">
-        <v>4.28</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="332">
@@ -13386,7 +13398,7 @@
         <v>5</v>
       </c>
       <c r="I332" t="n">
-        <v>6.98</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="333">
@@ -13464,7 +13476,7 @@
         <v>14</v>
       </c>
       <c r="I334" t="n">
-        <v>8.41</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="335">
@@ -13503,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -13581,7 +13593,7 @@
         <v>34</v>
       </c>
       <c r="I337" t="n">
-        <v>6.11</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="338">
@@ -13620,7 +13632,7 @@
         <v>9</v>
       </c>
       <c r="I338" t="n">
-        <v>17.78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339">
@@ -13659,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -13698,7 +13710,7 @@
         <v>26</v>
       </c>
       <c r="I340" t="n">
-        <v>5.14</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="341">
@@ -13737,7 +13749,7 @@
         <v>5</v>
       </c>
       <c r="I341" t="n">
-        <v>6.25</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="342">
@@ -13776,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -13815,7 +13827,7 @@
         <v>3</v>
       </c>
       <c r="I343" t="n">
-        <v>13.89</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="344">
@@ -13854,7 +13866,7 @@
         <v>4</v>
       </c>
       <c r="I344" t="n">
-        <v>16.28</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="345">
@@ -13971,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="I347" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="348">
@@ -14010,7 +14022,7 @@
         <v>5</v>
       </c>
       <c r="I348" t="n">
-        <v>14.29</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="349">
@@ -14049,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -14088,7 +14100,7 @@
         <v>7</v>
       </c>
       <c r="I350" t="n">
-        <v>14.01</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="351">
@@ -14166,7 +14178,7 @@
         <v>2</v>
       </c>
       <c r="I352" t="n">
-        <v>10.71</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="353">
@@ -14205,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="I353" t="n">
-        <v>6.98</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="354">
@@ -14283,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="I355" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356">
@@ -14322,7 +14334,7 @@
         <v>9</v>
       </c>
       <c r="I356" t="n">
-        <v>12.26</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="357">
@@ -14361,7 +14373,7 @@
         <v>7</v>
       </c>
       <c r="I357" t="n">
-        <v>15.96</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="358">
@@ -14439,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>15.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -14478,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -14517,7 +14529,7 @@
         <v>3</v>
       </c>
       <c r="I361" t="n">
-        <v>17.14</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="362">
@@ -14634,7 +14646,7 @@
         <v>4</v>
       </c>
       <c r="I364" t="n">
-        <v>7.37</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="365">
@@ -14751,7 +14763,7 @@
         <v>3</v>
       </c>
       <c r="I367" t="n">
-        <v>6.06</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="368">
@@ -14829,7 +14841,7 @@
         <v>1</v>
       </c>
       <c r="I369" t="n">
-        <v>3.52</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="370">
@@ -14868,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="I370" t="n">
-        <v>6.06</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="371">
@@ -14907,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -14946,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="I372" t="n">
-        <v>7.69</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="373">
@@ -14985,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -15024,7 +15036,7 @@
         <v>5</v>
       </c>
       <c r="I374" t="n">
-        <v>2.18</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="375">
@@ -15063,7 +15075,7 @@
         <v>15</v>
       </c>
       <c r="I375" t="n">
-        <v>15.04</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="376">
@@ -15102,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -15141,7 +15153,7 @@
         <v>11</v>
       </c>
       <c r="I377" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="378">
@@ -15219,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -15258,7 +15270,7 @@
         <v>6</v>
       </c>
       <c r="I380" t="n">
-        <v>6.92</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="381">
@@ -15375,7 +15387,7 @@
         <v>2</v>
       </c>
       <c r="I383" t="n">
-        <v>14.71</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="384">
@@ -15414,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -15531,7 +15543,7 @@
         <v>4</v>
       </c>
       <c r="I387" t="n">
-        <v>14.29</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="388">
@@ -15570,7 +15582,7 @@
         <v>8</v>
       </c>
       <c r="I388" t="n">
-        <v>7.73</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="389">
@@ -15609,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="I389" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390">
@@ -15726,7 +15738,7 @@
         <v>13</v>
       </c>
       <c r="I392" t="n">
-        <v>9.59</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="393">
@@ -15804,7 +15816,7 @@
         <v>4</v>
       </c>
       <c r="I394" t="n">
-        <v>9.09</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="395">
@@ -15882,7 +15894,7 @@
         <v>36</v>
       </c>
       <c r="I396" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="397">
@@ -15921,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="I397" t="n">
-        <v>28.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="398">
@@ -15960,7 +15972,7 @@
         <v>9</v>
       </c>
       <c r="I398" t="n">
-        <v>7.46</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="399">
@@ -15999,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="I399" t="n">
-        <v>17.65</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="400">
@@ -16038,7 +16050,7 @@
         <v>3</v>
       </c>
       <c r="I400" t="n">
-        <v>10.26</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="401">
@@ -16077,7 +16089,7 @@
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>21.05</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="402">
@@ -16155,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -16194,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -16233,7 +16245,7 @@
         <v>5</v>
       </c>
       <c r="I405" t="n">
-        <v>24</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="406">
@@ -16272,7 +16284,7 @@
         <v>2</v>
       </c>
       <c r="I406" t="n">
-        <v>3.27</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="407">
@@ -16350,7 +16362,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>22.22</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="409">
@@ -16428,7 +16440,7 @@
         <v>9</v>
       </c>
       <c r="I410" t="n">
-        <v>7.53</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="411">
@@ -16467,7 +16479,7 @@
         <v>3</v>
       </c>
       <c r="I411" t="n">
-        <v>23.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="412">
@@ -16506,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="I412" t="n">
-        <v>2.72</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="413">
@@ -16544,9 +16556,7 @@
       <c r="H413" t="n">
         <v>0</v>
       </c>
-      <c r="I413" t="n">
-        <v>0</v>
-      </c>
+      <c r="I413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -16584,7 +16594,7 @@
         <v>6</v>
       </c>
       <c r="I414" t="n">
-        <v>31.43</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="415">
@@ -16622,9 +16632,7 @@
       <c r="H415" t="n">
         <v>0</v>
       </c>
-      <c r="I415" t="n">
-        <v>0</v>
-      </c>
+      <c r="I415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -16662,7 +16670,7 @@
         <v>2</v>
       </c>
       <c r="I416" t="n">
-        <v>28.85</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="417">
@@ -16701,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -16740,7 +16748,7 @@
         <v>12</v>
       </c>
       <c r="I418" t="n">
-        <v>2.46</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="419">
@@ -16779,7 +16787,7 @@
         <v>4</v>
       </c>
       <c r="I419" t="n">
-        <v>5.56</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="420">
@@ -16857,7 +16865,7 @@
         <v>9</v>
       </c>
       <c r="I421" t="n">
-        <v>5.74</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="422">
@@ -16896,7 +16904,7 @@
         <v>2</v>
       </c>
       <c r="I422" t="n">
-        <v>12.12</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="423">
@@ -16935,7 +16943,7 @@
         <v>1</v>
       </c>
       <c r="I423" t="n">
-        <v>4.08</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="424">
@@ -16974,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>57.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -17013,7 +17021,7 @@
         <v>20</v>
       </c>
       <c r="I425" t="n">
-        <v>5.89</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="426">
@@ -17052,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="I426" t="n">
-        <v>8.33</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="427">
@@ -17091,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="I427" t="n">
-        <v>66.67</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="428">
@@ -17247,7 +17255,7 @@
         <v>3</v>
       </c>
       <c r="I431" t="n">
-        <v>5.68</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="432">
@@ -17325,7 +17333,7 @@
         <v>7</v>
       </c>
       <c r="I433" t="n">
-        <v>3.83</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="434">
@@ -17403,7 +17411,7 @@
         <v>11</v>
       </c>
       <c r="I435" t="n">
-        <v>6.93</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="436">
@@ -17442,7 +17450,7 @@
         <v>2</v>
       </c>
       <c r="I436" t="n">
-        <v>7.89</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="437">
@@ -17481,7 +17489,7 @@
         <v>3</v>
       </c>
       <c r="I437" t="n">
-        <v>4.19</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="438">
@@ -17520,7 +17528,7 @@
         <v>9</v>
       </c>
       <c r="I438" t="n">
-        <v>7.84</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="439">
@@ -17559,7 +17567,7 @@
         <v>7</v>
       </c>
       <c r="I439" t="n">
-        <v>8.33</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="440">
@@ -17637,7 +17645,7 @@
         <v>5</v>
       </c>
       <c r="I441" t="n">
-        <v>2.53</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="442">
@@ -17715,7 +17723,7 @@
         <v>10</v>
       </c>
       <c r="I443" t="n">
-        <v>3.88</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="444">
@@ -17754,7 +17762,7 @@
         <v>3</v>
       </c>
       <c r="I444" t="n">
-        <v>14.55</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="445">
@@ -17793,7 +17801,7 @@
         <v>2</v>
       </c>
       <c r="I445" t="n">
-        <v>7.69</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="446">
@@ -17832,7 +17840,7 @@
         <v>10</v>
       </c>
       <c r="I446" t="n">
-        <v>10.6</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="447">
@@ -17949,7 +17957,7 @@
         <v>23</v>
       </c>
       <c r="I449" t="n">
-        <v>11.85</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="450">
@@ -17988,7 +17996,7 @@
         <v>5</v>
       </c>
       <c r="I450" t="n">
-        <v>21.54</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="451">
@@ -18027,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="n">
-        <v>4.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -18066,7 +18074,7 @@
         <v>14</v>
       </c>
       <c r="I452" t="n">
-        <v>4.42</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="453">
@@ -18105,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -18144,7 +18152,7 @@
         <v>5</v>
       </c>
       <c r="I454" t="n">
-        <v>17.17</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="455">
@@ -18261,7 +18269,7 @@
         <v>4</v>
       </c>
       <c r="I457" t="n">
-        <v>8.74</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="458">
@@ -18300,7 +18308,7 @@
         <v>6</v>
       </c>
       <c r="I458" t="n">
-        <v>5.67</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="459">
@@ -18339,7 +18347,7 @@
         <v>3</v>
       </c>
       <c r="I459" t="n">
-        <v>9.92</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="460">
@@ -18417,7 +18425,7 @@
         <v>1</v>
       </c>
       <c r="I461" t="n">
-        <v>17.65</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="462">
@@ -18495,7 +18503,7 @@
         <v>10</v>
       </c>
       <c r="I463" t="n">
-        <v>1.72</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="464">
@@ -18534,7 +18542,7 @@
         <v>6</v>
       </c>
       <c r="I464" t="n">
-        <v>11.58</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="465">
@@ -18573,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -18612,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>10.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -18690,7 +18698,7 @@
         <v>1</v>
       </c>
       <c r="I468" t="n">
-        <v>40</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="469">
@@ -18729,7 +18737,7 @@
         <v>3</v>
       </c>
       <c r="I469" t="n">
-        <v>17.86</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="470">
@@ -18768,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="n">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -18807,7 +18815,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="n">
-        <v>46.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -18846,7 +18854,7 @@
         <v>4</v>
       </c>
       <c r="I472" t="n">
-        <v>18.1</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="473">
@@ -18885,7 +18893,7 @@
         <v>1</v>
       </c>
       <c r="I473" t="n">
-        <v>7.02</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="474">
@@ -18924,7 +18932,7 @@
         <v>1</v>
       </c>
       <c r="I474" t="n">
-        <v>45.45</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="475">
@@ -18963,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -19002,7 +19010,7 @@
         <v>4</v>
       </c>
       <c r="I476" t="n">
-        <v>25.76</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="477">
@@ -19041,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -19158,7 +19166,7 @@
         <v>16</v>
       </c>
       <c r="I480" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="481">
@@ -19197,7 +19205,7 @@
         <v>8</v>
       </c>
       <c r="I481" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="482">
@@ -19274,9 +19282,7 @@
       <c r="H483" t="n">
         <v>0</v>
       </c>
-      <c r="I483" t="n">
-        <v>0</v>
-      </c>
+      <c r="I483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -19314,7 +19320,7 @@
         <v>8</v>
       </c>
       <c r="I484" t="n">
-        <v>4.98</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="485">
@@ -19353,7 +19359,7 @@
         <v>4</v>
       </c>
       <c r="I485" t="n">
-        <v>2.97</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="486">
@@ -19392,7 +19398,7 @@
         <v>7</v>
       </c>
       <c r="I486" t="n">
-        <v>6.5</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="487">
@@ -19431,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="n">
-        <v>6.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -19470,7 +19476,7 @@
         <v>4</v>
       </c>
       <c r="I488" t="n">
-        <v>5.05</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="489">
@@ -19509,7 +19515,7 @@
         <v>8</v>
       </c>
       <c r="I489" t="n">
-        <v>5.38</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="490">
@@ -19587,7 +19593,7 @@
         <v>12</v>
       </c>
       <c r="I491" t="n">
-        <v>8.24</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="492">
@@ -19626,7 +19632,7 @@
         <v>12</v>
       </c>
       <c r="I492" t="n">
-        <v>6.6</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="493">
@@ -19665,7 +19671,7 @@
         <v>3</v>
       </c>
       <c r="I493" t="n">
-        <v>17.65</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="494">
@@ -19704,7 +19710,7 @@
         <v>10</v>
       </c>
       <c r="I494" t="n">
-        <v>5.28</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="495">
@@ -19782,7 +19788,7 @@
         <v>10</v>
       </c>
       <c r="I496" t="n">
-        <v>4.71</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="497">
@@ -19860,7 +19866,7 @@
         <v>12</v>
       </c>
       <c r="I498" t="n">
-        <v>14.44</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="499">
@@ -19899,7 +19905,7 @@
         <v>14</v>
       </c>
       <c r="I499" t="n">
-        <v>5.43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500">
@@ -20016,7 +20022,7 @@
         <v>11</v>
       </c>
       <c r="I502" t="n">
-        <v>4.12</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="503">
@@ -20055,7 +20061,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -20094,7 +20100,7 @@
         <v>16</v>
       </c>
       <c r="I504" t="n">
-        <v>6.17</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="505">
@@ -20172,7 +20178,7 @@
         <v>12</v>
       </c>
       <c r="I506" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="507">
@@ -20211,7 +20217,7 @@
         <v>3</v>
       </c>
       <c r="I507" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508">
@@ -20288,9 +20294,7 @@
       <c r="H509" t="n">
         <v>0</v>
       </c>
-      <c r="I509" t="n">
-        <v>0</v>
-      </c>
+      <c r="I509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -20367,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="I511" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="512">
@@ -20406,7 +20410,7 @@
         <v>3</v>
       </c>
       <c r="I512" t="n">
-        <v>9.52</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="513">
@@ -20445,7 +20449,7 @@
         <v>7</v>
       </c>
       <c r="I513" t="n">
-        <v>9.25</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="514">
@@ -20523,7 +20527,7 @@
         <v>43</v>
       </c>
       <c r="I515" t="n">
-        <v>8.56</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="516">
@@ -20562,7 +20566,7 @@
         <v>1</v>
       </c>
       <c r="I516" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="517">
@@ -20601,7 +20605,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>29.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -20640,7 +20644,7 @@
         <v>19</v>
       </c>
       <c r="I518" t="n">
-        <v>39.34</v>
+        <v>31.15</v>
       </c>
     </row>
     <row r="519">
@@ -20679,7 +20683,7 @@
         <v>4</v>
       </c>
       <c r="I519" t="n">
-        <v>31.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="520">
@@ -20718,7 +20722,7 @@
         <v>8</v>
       </c>
       <c r="I520" t="n">
-        <v>56.52</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="521">
@@ -20757,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="I521" t="n">
-        <v>10.71</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="522">
@@ -20796,7 +20800,7 @@
         <v>2</v>
       </c>
       <c r="I522" t="n">
-        <v>29.41</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="523">
@@ -20874,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="I524" t="n">
-        <v>11.76</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="525">
@@ -20952,7 +20956,7 @@
         <v>4</v>
       </c>
       <c r="I526" t="n">
-        <v>9.18</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="527">
@@ -21029,9 +21033,7 @@
       <c r="H528" t="n">
         <v>0</v>
       </c>
-      <c r="I528" t="n">
-        <v>0</v>
-      </c>
+      <c r="I528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -21069,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -21147,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -21186,7 +21188,7 @@
         <v>5</v>
       </c>
       <c r="I532" t="n">
-        <v>17.6</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="533">
@@ -21225,7 +21227,7 @@
         <v>6</v>
       </c>
       <c r="I533" t="n">
-        <v>8.65</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="534">
@@ -21264,7 +21266,7 @@
         <v>14</v>
       </c>
       <c r="I534" t="n">
-        <v>8.02</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="535">
@@ -21303,7 +21305,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -21342,7 +21344,7 @@
         <v>1</v>
       </c>
       <c r="I536" t="n">
-        <v>4.55</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="537">
@@ -21381,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="n">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -21420,7 +21422,7 @@
         <v>7</v>
       </c>
       <c r="I538" t="n">
-        <v>14.43</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="539">
@@ -21498,7 +21500,7 @@
         <v>7</v>
       </c>
       <c r="I540" t="n">
-        <v>15.6</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="541">
@@ -21615,7 +21617,7 @@
         <v>16</v>
       </c>
       <c r="I543" t="n">
-        <v>22.45</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="544">
@@ -21654,7 +21656,7 @@
         <v>14</v>
       </c>
       <c r="I544" t="n">
-        <v>2.64</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="545">
@@ -21693,7 +21695,7 @@
         <v>6</v>
       </c>
       <c r="I545" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="546">
@@ -21849,7 +21851,7 @@
         <v>12</v>
       </c>
       <c r="I549" t="n">
-        <v>8.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="550">
@@ -21927,7 +21929,7 @@
         <v>3</v>
       </c>
       <c r="I551" t="n">
-        <v>11.11</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="552">
@@ -22239,7 +22241,7 @@
         <v>11</v>
       </c>
       <c r="I559" t="n">
-        <v>8.99</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="560">
@@ -22278,7 +22280,7 @@
         <v>6</v>
       </c>
       <c r="I560" t="n">
-        <v>18.42</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="561">
@@ -22317,7 +22319,7 @@
         <v>12</v>
       </c>
       <c r="I561" t="n">
-        <v>8.210000000000001</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="562">
@@ -22356,7 +22358,7 @@
         <v>3</v>
       </c>
       <c r="I562" t="n">
-        <v>12.9</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="563">
@@ -22434,7 +22436,7 @@
         <v>13</v>
       </c>
       <c r="I564" t="n">
-        <v>19.72</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="565">
@@ -22473,7 +22475,7 @@
         <v>7</v>
       </c>
       <c r="I565" t="n">
-        <v>15.24</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="566">
@@ -22512,7 +22514,7 @@
         <v>3</v>
       </c>
       <c r="I566" t="n">
-        <v>5.95</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="567">
@@ -22551,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -22590,7 +22592,7 @@
         <v>3</v>
       </c>
       <c r="I568" t="n">
-        <v>12.86</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="569">
@@ -22629,7 +22631,7 @@
         <v>5</v>
       </c>
       <c r="I569" t="n">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="570">
@@ -22667,8 +22669,10 @@
       <c r="H570" t="n">
         <v>7</v>
       </c>
-      <c r="I570" t="n">
-        <v>0</v>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="571">
@@ -22706,8 +22710,10 @@
       <c r="H571" t="n">
         <v>7</v>
       </c>
-      <c r="I571" t="n">
-        <v>0</v>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="572">
@@ -22745,8 +22751,10 @@
       <c r="H572" t="n">
         <v>1</v>
       </c>
-      <c r="I572" t="n">
-        <v>0</v>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="573">
@@ -22784,8 +22792,10 @@
       <c r="H573" t="n">
         <v>1</v>
       </c>
-      <c r="I573" t="n">
-        <v>0</v>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="574">
@@ -22823,8 +22833,10 @@
       <c r="H574" t="n">
         <v>6</v>
       </c>
-      <c r="I574" t="n">
-        <v>0</v>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="575">
@@ -22862,8 +22874,10 @@
       <c r="H575" t="n">
         <v>2</v>
       </c>
-      <c r="I575" t="n">
-        <v>0</v>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="576">
@@ -22902,7 +22916,7 @@
         <v>18</v>
       </c>
       <c r="I576" t="n">
-        <v>3.88</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="577">
@@ -22941,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -23019,7 +23033,7 @@
         <v>4</v>
       </c>
       <c r="I579" t="n">
-        <v>12.73</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="580">
@@ -23097,7 +23111,7 @@
         <v>4</v>
       </c>
       <c r="I581" t="n">
-        <v>11.54</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="582">
@@ -23214,7 +23228,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
-        <v>15.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -23253,7 +23267,7 @@
         <v>12</v>
       </c>
       <c r="I585" t="n">
-        <v>11.63</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="586">
@@ -23331,7 +23345,7 @@
         <v>2</v>
       </c>
       <c r="I587" t="n">
-        <v>10.71</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="588">
@@ -23370,7 +23384,7 @@
         <v>3</v>
       </c>
       <c r="I588" t="n">
-        <v>13.54</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="589">
@@ -23409,7 +23423,7 @@
         <v>34</v>
       </c>
       <c r="I589" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="590">
@@ -23487,7 +23501,7 @@
         <v>18</v>
       </c>
       <c r="I591" t="n">
-        <v>3.62</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="592">
@@ -23526,7 +23540,7 @@
         <v>4</v>
       </c>
       <c r="I592" t="n">
-        <v>17.65</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="593">
@@ -23565,7 +23579,7 @@
         <v>9</v>
       </c>
       <c r="I593" t="n">
-        <v>4.53</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="594">
@@ -23643,7 +23657,7 @@
         <v>6</v>
       </c>
       <c r="I595" t="n">
-        <v>5.49</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="596">
@@ -23682,7 +23696,7 @@
         <v>6</v>
       </c>
       <c r="I596" t="n">
-        <v>20</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="597">
@@ -23721,7 +23735,7 @@
         <v>8</v>
       </c>
       <c r="I597" t="n">
-        <v>5.69</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="598">
@@ -23760,7 +23774,7 @@
         <v>2</v>
       </c>
       <c r="I598" t="n">
-        <v>7.34</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="599">
@@ -23799,7 +23813,7 @@
         <v>20</v>
       </c>
       <c r="I599" t="n">
-        <v>24.75</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="600">
@@ -23838,7 +23852,7 @@
         <v>13</v>
       </c>
       <c r="I600" t="n">
-        <v>7.88</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="601">
@@ -23877,7 +23891,7 @@
         <v>10</v>
       </c>
       <c r="I601" t="n">
-        <v>4.26</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="602">
@@ -23955,7 +23969,7 @@
         <v>21</v>
       </c>
       <c r="I603" t="n">
-        <v>11.24</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="604">
@@ -24033,7 +24047,7 @@
         <v>7</v>
       </c>
       <c r="I605" t="n">
-        <v>10</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="606">
@@ -24072,7 +24086,7 @@
         <v>8</v>
       </c>
       <c r="I606" t="n">
-        <v>8.06</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="607">
@@ -24111,7 +24125,7 @@
         <v>18</v>
       </c>
       <c r="I607" t="n">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="608">
@@ -24384,7 +24398,7 @@
         <v>9</v>
       </c>
       <c r="I614" t="n">
-        <v>1.49</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="615">
@@ -24462,7 +24476,7 @@
         <v>5</v>
       </c>
       <c r="I616" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="617">
@@ -24579,7 +24593,7 @@
         <v>2</v>
       </c>
       <c r="I619" t="n">
-        <v>7.69</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="620">
@@ -24852,7 +24866,7 @@
         <v>7</v>
       </c>
       <c r="I626" t="n">
-        <v>23.33</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="627">
@@ -24891,7 +24905,7 @@
         <v>1</v>
       </c>
       <c r="I627" t="n">
-        <v>2.44</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="628">
@@ -25047,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -25125,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -25242,7 +25256,7 @@
         <v>10</v>
       </c>
       <c r="I636" t="n">
-        <v>9.25</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="637">
@@ -25281,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="n">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -25320,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="I638" t="n">
-        <v>18.75</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="639">
@@ -25359,7 +25373,7 @@
         <v>12</v>
       </c>
       <c r="I639" t="n">
-        <v>8.51</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="640">
@@ -25437,7 +25451,7 @@
         <v>9</v>
       </c>
       <c r="I641" t="n">
-        <v>14.46</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="642">
@@ -25514,8 +25528,10 @@
       <c r="H643" t="n">
         <v>1</v>
       </c>
-      <c r="I643" t="n">
-        <v>0</v>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="644">
@@ -25553,8 +25569,10 @@
       <c r="H644" t="n">
         <v>1</v>
       </c>
-      <c r="I644" t="n">
-        <v>0</v>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="645">
@@ -25593,7 +25611,7 @@
         <v>24</v>
       </c>
       <c r="I645" t="n">
-        <v>3.13</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="646">
@@ -25671,7 +25689,7 @@
         <v>12</v>
       </c>
       <c r="I647" t="n">
-        <v>6.4</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="648">
@@ -25710,7 +25728,7 @@
         <v>12</v>
       </c>
       <c r="I648" t="n">
-        <v>15.66</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="649">
@@ -25749,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -25788,7 +25806,7 @@
         <v>11</v>
       </c>
       <c r="I650" t="n">
-        <v>15.38</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="651">
@@ -25866,7 +25884,7 @@
         <v>15</v>
       </c>
       <c r="I652" t="n">
-        <v>10.15</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="653">
@@ -25905,7 +25923,7 @@
         <v>33</v>
       </c>
       <c r="I653" t="n">
-        <v>17.08</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="654">
@@ -25944,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -25983,7 +26001,7 @@
         <v>11</v>
       </c>
       <c r="I655" t="n">
-        <v>5.79</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="656">
@@ -26139,7 +26157,7 @@
         <v>5</v>
       </c>
       <c r="I659" t="n">
-        <v>8.59</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="660">
@@ -26178,7 +26196,7 @@
         <v>1</v>
       </c>
       <c r="I660" t="n">
-        <v>4.88</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="661">
@@ -26217,7 +26235,7 @@
         <v>3</v>
       </c>
       <c r="I661" t="n">
-        <v>8.77</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="662">
@@ -26295,7 +26313,7 @@
         <v>18</v>
       </c>
       <c r="I663" t="n">
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="664">
@@ -26334,7 +26352,7 @@
         <v>1</v>
       </c>
       <c r="I664" t="n">
-        <v>10.34</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="665">
@@ -26412,7 +26430,7 @@
         <v>3</v>
       </c>
       <c r="I666" t="n">
-        <v>4.23</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="667">
@@ -26451,7 +26469,7 @@
         <v>4</v>
       </c>
       <c r="I667" t="n">
-        <v>9.23</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="668">
@@ -26529,7 +26547,7 @@
         <v>4</v>
       </c>
       <c r="I669" t="n">
-        <v>4.58</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="670">
@@ -26568,7 +26586,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -26607,7 +26625,7 @@
         <v>2</v>
       </c>
       <c r="I671" t="n">
-        <v>67.44</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="672">
@@ -26646,7 +26664,7 @@
         <v>2</v>
       </c>
       <c r="I672" t="n">
-        <v>14.29</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="673">
@@ -26724,7 +26742,7 @@
         <v>11</v>
       </c>
       <c r="I674" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="675">
@@ -26763,7 +26781,7 @@
         <v>6</v>
       </c>
       <c r="I675" t="n">
-        <v>4.88</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="676">
@@ -26802,7 +26820,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -26880,7 +26898,7 @@
         <v>1</v>
       </c>
       <c r="I678" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="679">
@@ -26919,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -26958,7 +26976,7 @@
         <v>4</v>
       </c>
       <c r="I680" t="n">
-        <v>12</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="681">
@@ -26997,7 +27015,7 @@
         <v>3</v>
       </c>
       <c r="I681" t="n">
-        <v>11.29</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="682">
@@ -27036,7 +27054,7 @@
         <v>2</v>
       </c>
       <c r="I682" t="n">
-        <v>45.45</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="683">
@@ -27075,7 +27093,7 @@
         <v>6</v>
       </c>
       <c r="I683" t="n">
-        <v>9.74</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="684">
@@ -27114,7 +27132,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -27153,7 +27171,7 @@
         <v>7</v>
       </c>
       <c r="I685" t="n">
-        <v>6.9</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="686">
@@ -27192,7 +27210,7 @@
         <v>1</v>
       </c>
       <c r="I686" t="n">
-        <v>9.09</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="687">
@@ -27231,7 +27249,7 @@
         <v>1</v>
       </c>
       <c r="I687" t="n">
-        <v>43.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="688">
@@ -27270,7 +27288,7 @@
         <v>3</v>
       </c>
       <c r="I688" t="n">
-        <v>4.76</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="689">
@@ -27309,7 +27327,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="n">
-        <v>6.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -27387,7 +27405,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -27426,7 +27444,7 @@
         <v>4</v>
       </c>
       <c r="I692" t="n">
-        <v>5.1</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="693">
@@ -27465,7 +27483,7 @@
         <v>1</v>
       </c>
       <c r="I693" t="n">
-        <v>13.64</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="694">
@@ -27504,7 +27522,7 @@
         <v>9</v>
       </c>
       <c r="I694" t="n">
-        <v>5.14</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="695">
@@ -27543,7 +27561,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -27621,7 +27639,7 @@
         <v>16</v>
       </c>
       <c r="I697" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="698">
@@ -27660,7 +27678,7 @@
         <v>1</v>
       </c>
       <c r="I698" t="n">
-        <v>19.51</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="699">
@@ -27699,7 +27717,7 @@
         <v>2</v>
       </c>
       <c r="I699" t="n">
-        <v>4.48</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="700">
@@ -27776,9 +27794,7 @@
       <c r="H701" t="n">
         <v>0</v>
       </c>
-      <c r="I701" t="n">
-        <v>0</v>
-      </c>
+      <c r="I701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -27816,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -27855,7 +27871,7 @@
         <v>6</v>
       </c>
       <c r="I703" t="n">
-        <v>5.14</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="704">
@@ -27894,7 +27910,7 @@
         <v>2</v>
       </c>
       <c r="I704" t="n">
-        <v>13.43</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="705">
@@ -27933,7 +27949,7 @@
         <v>5</v>
       </c>
       <c r="I705" t="n">
-        <v>14.61</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="706">
@@ -27971,8 +27987,10 @@
       <c r="H706" t="n">
         <v>1</v>
       </c>
-      <c r="I706" t="n">
-        <v>0</v>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="707">
@@ -28128,7 +28146,7 @@
         <v>29</v>
       </c>
       <c r="I710" t="n">
-        <v>26.97</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="711">
@@ -28323,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="n">
-        <v>3.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -28362,7 +28380,7 @@
         <v>1</v>
       </c>
       <c r="I716" t="n">
-        <v>3.83</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="717">
@@ -28401,7 +28419,7 @@
         <v>1</v>
       </c>
       <c r="I717" t="n">
-        <v>8.640000000000001</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="718">
@@ -28557,7 +28575,7 @@
         <v>14</v>
       </c>
       <c r="I721" t="n">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="722">
@@ -28713,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -28791,7 +28809,7 @@
         <v>2</v>
       </c>
       <c r="I727" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="728">
@@ -28869,7 +28887,7 @@
         <v>10</v>
       </c>
       <c r="I729" t="n">
-        <v>8.92</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="730">
@@ -28908,7 +28926,7 @@
         <v>21</v>
       </c>
       <c r="I730" t="n">
-        <v>7.69</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="731">
@@ -29181,7 +29199,7 @@
         <v>1</v>
       </c>
       <c r="I737" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="738">
@@ -29220,7 +29238,7 @@
         <v>4</v>
       </c>
       <c r="I738" t="n">
-        <v>3.09</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="739">
@@ -29259,7 +29277,7 @@
         <v>1</v>
       </c>
       <c r="I739" t="n">
-        <v>18.18</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="740">
@@ -29298,7 +29316,7 @@
         <v>1</v>
       </c>
       <c r="I740" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -29337,7 +29355,7 @@
         <v>2</v>
       </c>
       <c r="I741" t="n">
-        <v>4.88</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="742">
@@ -29376,7 +29394,7 @@
         <v>3</v>
       </c>
       <c r="I742" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="743">
@@ -29454,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -29532,7 +29550,7 @@
         <v>17</v>
       </c>
       <c r="I746" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="747">
@@ -29727,7 +29745,7 @@
         <v>6</v>
       </c>
       <c r="I751" t="n">
-        <v>7.62</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="752">
@@ -29766,7 +29784,7 @@
         <v>2</v>
       </c>
       <c r="I752" t="n">
-        <v>11.11</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="753">
@@ -29805,7 +29823,7 @@
         <v>7</v>
       </c>
       <c r="I753" t="n">
-        <v>7.47</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="754">
@@ -29844,7 +29862,7 @@
         <v>6</v>
       </c>
       <c r="I754" t="n">
-        <v>7.94</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="755">
@@ -29883,7 +29901,7 @@
         <v>4</v>
       </c>
       <c r="I755" t="n">
-        <v>35.71</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="756">
@@ -29922,7 +29940,7 @@
         <v>7</v>
       </c>
       <c r="I756" t="n">
-        <v>9.02</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="757">
@@ -30039,7 +30057,7 @@
         <v>1</v>
       </c>
       <c r="I759" t="n">
-        <v>7.69</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="760">
@@ -30234,7 +30252,7 @@
         <v>9</v>
       </c>
       <c r="I764" t="n">
-        <v>7.14</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="765">
@@ -30273,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -30312,7 +30330,7 @@
         <v>18</v>
       </c>
       <c r="I766" t="n">
-        <v>5.26</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="767">
@@ -30351,7 +30369,7 @@
         <v>1</v>
       </c>
       <c r="I767" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768">
@@ -30390,7 +30408,7 @@
         <v>14</v>
       </c>
       <c r="I768" t="n">
-        <v>5.76</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="769">
@@ -30429,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -30507,7 +30525,7 @@
         <v>8</v>
       </c>
       <c r="I771" t="n">
-        <v>10.99</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="772">
@@ -30546,7 +30564,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -30585,7 +30603,7 @@
         <v>3</v>
       </c>
       <c r="I773" t="n">
-        <v>24.14</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="774">
@@ -30624,7 +30642,7 @@
         <v>10</v>
       </c>
       <c r="I774" t="n">
-        <v>12.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="775">
@@ -30663,7 +30681,7 @@
         <v>3</v>
       </c>
       <c r="I775" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -30780,7 +30798,7 @@
         <v>35</v>
       </c>
       <c r="I778" t="n">
-        <v>4.16</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="779">
@@ -30819,7 +30837,7 @@
         <v>17</v>
       </c>
       <c r="I779" t="n">
-        <v>3.47</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="780">
@@ -30897,7 +30915,7 @@
         <v>12</v>
       </c>
       <c r="I781" t="n">
-        <v>9.140000000000001</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="782">
@@ -30975,7 +30993,7 @@
         <v>12</v>
       </c>
       <c r="I783" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="784">
@@ -31014,7 +31032,7 @@
         <v>9</v>
       </c>
       <c r="I784" t="n">
-        <v>7.07</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="785">
@@ -31131,7 +31149,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="n">
-        <v>17.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -31169,9 +31187,7 @@
       <c r="H788" t="n">
         <v>0</v>
       </c>
-      <c r="I788" t="n">
-        <v>0</v>
-      </c>
+      <c r="I788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -31209,7 +31225,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="n">
-        <v>6.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -31248,7 +31264,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="n">
-        <v>21.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -31287,7 +31303,7 @@
         <v>2</v>
       </c>
       <c r="I791" t="n">
-        <v>7.81</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="792">
@@ -31404,7 +31420,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -31443,7 +31459,7 @@
         <v>14</v>
       </c>
       <c r="I795" t="n">
-        <v>9.470000000000001</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="796">
@@ -31560,7 +31576,7 @@
         <v>3</v>
       </c>
       <c r="I798" t="n">
-        <v>4.37</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="799">
@@ -31599,7 +31615,7 @@
         <v>1</v>
       </c>
       <c r="I799" t="n">
-        <v>11.32</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="800">
@@ -31677,7 +31693,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -31716,7 +31732,7 @@
         <v>4</v>
       </c>
       <c r="I802" t="n">
-        <v>11.61</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="803">
@@ -31833,7 +31849,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -31950,7 +31966,7 @@
         <v>16</v>
       </c>
       <c r="I808" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="809">
@@ -31989,7 +32005,7 @@
         <v>6</v>
       </c>
       <c r="I809" t="n">
-        <v>5.95</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="810">
@@ -32106,7 +32122,7 @@
         <v>3</v>
       </c>
       <c r="I812" t="n">
-        <v>3.54</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="813">
@@ -32223,7 +32239,7 @@
         <v>2</v>
       </c>
       <c r="I815" t="n">
-        <v>23.33</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="816">
@@ -32262,7 +32278,7 @@
         <v>7</v>
       </c>
       <c r="I816" t="n">
-        <v>11.96</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="817">
@@ -32301,7 +32317,7 @@
         <v>6</v>
       </c>
       <c r="I817" t="n">
-        <v>15.71</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="818">
@@ -32340,7 +32356,7 @@
         <v>25</v>
       </c>
       <c r="I818" t="n">
-        <v>14.5</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="819">
@@ -32574,7 +32590,7 @@
         <v>4</v>
       </c>
       <c r="I824" t="n">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="825">
@@ -32613,7 +32629,7 @@
         <v>3</v>
       </c>
       <c r="I825" t="n">
-        <v>26.09</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="826">
@@ -32691,7 +32707,7 @@
         <v>2</v>
       </c>
       <c r="I827" t="n">
-        <v>9.41</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="828">
@@ -32847,7 +32863,7 @@
         <v>9</v>
       </c>
       <c r="I831" t="n">
-        <v>3.88</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="832">
@@ -32886,7 +32902,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -32925,7 +32941,7 @@
         <v>7</v>
       </c>
       <c r="I833" t="n">
-        <v>3.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="834">
@@ -32964,7 +32980,7 @@
         <v>17</v>
       </c>
       <c r="I834" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="835">
@@ -33003,7 +33019,7 @@
         <v>5</v>
       </c>
       <c r="I835" t="n">
-        <v>47.06</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="836">
@@ -33042,7 +33058,7 @@
         <v>1</v>
       </c>
       <c r="I836" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="837">
@@ -33081,7 +33097,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="n">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -33120,7 +33136,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="n">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -33159,7 +33175,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="n">
-        <v>61.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -33276,7 +33292,7 @@
         <v>2</v>
       </c>
       <c r="I842" t="n">
-        <v>9.52</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="843">
@@ -33354,7 +33370,7 @@
         <v>1</v>
       </c>
       <c r="I844" t="n">
-        <v>21.62</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="845">
@@ -33393,7 +33409,7 @@
         <v>1</v>
       </c>
       <c r="I845" t="n">
-        <v>23.08</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="846">
@@ -33432,7 +33448,7 @@
         <v>11</v>
       </c>
       <c r="I846" t="n">
-        <v>35.38</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="847">
@@ -33471,7 +33487,7 @@
         <v>2</v>
       </c>
       <c r="I847" t="n">
-        <v>45.45</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="848">
@@ -33510,7 +33526,7 @@
         <v>4</v>
       </c>
       <c r="I848" t="n">
-        <v>9.210000000000001</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="849">
@@ -33549,7 +33565,7 @@
         <v>3</v>
       </c>
       <c r="I849" t="n">
-        <v>54.24</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="850">
@@ -33588,7 +33604,7 @@
         <v>12</v>
       </c>
       <c r="I850" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="851">
@@ -33627,7 +33643,7 @@
         <v>6</v>
       </c>
       <c r="I851" t="n">
-        <v>4.06</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="852">
@@ -33666,7 +33682,7 @@
         <v>1</v>
       </c>
       <c r="I852" t="n">
-        <v>35.29</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="853">
@@ -33705,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -33744,7 +33760,7 @@
         <v>3</v>
       </c>
       <c r="I854" t="n">
-        <v>3.21</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="855">
@@ -33783,7 +33799,7 @@
         <v>11</v>
       </c>
       <c r="I855" t="n">
-        <v>15.97</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="856">
@@ -33822,7 +33838,7 @@
         <v>6</v>
       </c>
       <c r="I856" t="n">
-        <v>23.6</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="857">
@@ -33861,7 +33877,7 @@
         <v>4</v>
       </c>
       <c r="I857" t="n">
-        <v>5.26</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="858">
@@ -33900,7 +33916,7 @@
         <v>11</v>
       </c>
       <c r="I858" t="n">
-        <v>10.98</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="859">
@@ -33939,7 +33955,7 @@
         <v>6</v>
       </c>
       <c r="I859" t="n">
-        <v>7.14</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="860">
@@ -33978,7 +33994,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="n">
-        <v>3.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -34017,7 +34033,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -34056,7 +34072,7 @@
         <v>5</v>
       </c>
       <c r="I862" t="n">
-        <v>16.48</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="863">
@@ -34134,7 +34150,7 @@
         <v>33</v>
       </c>
       <c r="I864" t="n">
-        <v>7.08</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="865">
@@ -34173,7 +34189,7 @@
         <v>5</v>
       </c>
       <c r="I865" t="n">
-        <v>13.04</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="866">
@@ -34212,7 +34228,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -34251,7 +34267,7 @@
         <v>11</v>
       </c>
       <c r="I867" t="n">
-        <v>11.65</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="868">
@@ -34290,7 +34306,7 @@
         <v>2</v>
       </c>
       <c r="I868" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="869">
@@ -34368,7 +34384,7 @@
         <v>8</v>
       </c>
       <c r="I870" t="n">
-        <v>14.75</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="871">
@@ -34407,7 +34423,7 @@
         <v>23</v>
       </c>
       <c r="I871" t="n">
-        <v>9.68</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="872">
@@ -34446,7 +34462,7 @@
         <v>5</v>
       </c>
       <c r="I872" t="n">
-        <v>20.51</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="873">
@@ -34485,7 +34501,7 @@
         <v>7</v>
       </c>
       <c r="I873" t="n">
-        <v>7.48</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="874">
@@ -34602,7 +34618,7 @@
         <v>14</v>
       </c>
       <c r="I876" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="877">
@@ -34641,7 +34657,7 @@
         <v>1</v>
       </c>
       <c r="I877" t="n">
-        <v>1.53</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="878">
@@ -34758,7 +34774,7 @@
         <v>2</v>
       </c>
       <c r="I880" t="n">
-        <v>8.33</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="881">
@@ -34836,7 +34852,7 @@
         <v>8</v>
       </c>
       <c r="I882" t="n">
-        <v>5.69</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="883">
@@ -34914,7 +34930,7 @@
         <v>1</v>
       </c>
       <c r="I884" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="885">
@@ -34953,7 +34969,7 @@
         <v>3</v>
       </c>
       <c r="I885" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="886">
@@ -34992,7 +35008,7 @@
         <v>14</v>
       </c>
       <c r="I886" t="n">
-        <v>3.94</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="887">
@@ -35031,7 +35047,7 @@
         <v>7</v>
       </c>
       <c r="I887" t="n">
-        <v>5.97</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="888">
@@ -35070,7 +35086,7 @@
         <v>6</v>
       </c>
       <c r="I888" t="n">
-        <v>5.63</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="889">
@@ -35148,7 +35164,7 @@
         <v>11</v>
       </c>
       <c r="I890" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="891">
@@ -35226,7 +35242,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -35265,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -35304,7 +35320,7 @@
         <v>1</v>
       </c>
       <c r="I894" t="n">
-        <v>12.5</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="895">
@@ -35343,7 +35359,7 @@
         <v>2</v>
       </c>
       <c r="I895" t="n">
-        <v>5.2</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="896">
@@ -35381,9 +35397,7 @@
       <c r="H896" t="n">
         <v>0</v>
       </c>
-      <c r="I896" t="n">
-        <v>0</v>
-      </c>
+      <c r="I896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -35460,7 +35474,7 @@
         <v>11</v>
       </c>
       <c r="I898" t="n">
-        <v>17.82</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="899">
@@ -35499,7 +35513,7 @@
         <v>3</v>
       </c>
       <c r="I899" t="n">
-        <v>9.619999999999999</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="900">
@@ -35538,7 +35552,7 @@
         <v>4</v>
       </c>
       <c r="I900" t="n">
-        <v>14.29</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="901">
@@ -35577,7 +35591,7 @@
         <v>1</v>
       </c>
       <c r="I901" t="n">
-        <v>10.53</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="902">
@@ -35616,7 +35630,7 @@
         <v>20</v>
       </c>
       <c r="I902" t="n">
-        <v>9.359999999999999</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="903">
@@ -35733,7 +35747,7 @@
         <v>11</v>
       </c>
       <c r="I905" t="n">
-        <v>4.73</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="906">
@@ -35772,7 +35786,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -35889,7 +35903,7 @@
         <v>8</v>
       </c>
       <c r="I909" t="n">
-        <v>23.08</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="910">
@@ -35967,7 +35981,7 @@
         <v>11</v>
       </c>
       <c r="I911" t="n">
-        <v>3.64</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="912">
@@ -36006,7 +36020,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -36045,7 +36059,7 @@
         <v>3</v>
       </c>
       <c r="I913" t="n">
-        <v>6.06</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="914">
@@ -36123,7 +36137,7 @@
         <v>4</v>
       </c>
       <c r="I915" t="n">
-        <v>6.41</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="916">
@@ -36162,7 +36176,7 @@
         <v>6</v>
       </c>
       <c r="I916" t="n">
-        <v>14.29</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="917">
@@ -36201,7 +36215,7 @@
         <v>4</v>
       </c>
       <c r="I917" t="n">
-        <v>20.69</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="918">
@@ -36318,7 +36332,7 @@
         <v>12</v>
       </c>
       <c r="I920" t="n">
-        <v>4.47</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="921">
@@ -36357,7 +36371,7 @@
         <v>10</v>
       </c>
       <c r="I921" t="n">
-        <v>14.67</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="922">
@@ -36474,7 +36488,7 @@
         <v>2</v>
       </c>
       <c r="I924" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="925">
@@ -36552,7 +36566,7 @@
         <v>9</v>
       </c>
       <c r="I926" t="n">
-        <v>4.53</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="927">
@@ -36630,7 +36644,7 @@
         <v>13</v>
       </c>
       <c r="I928" t="n">
-        <v>5.17</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="929">
@@ -36708,7 +36722,7 @@
         <v>21</v>
       </c>
       <c r="I930" t="n">
-        <v>14.71</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="931">
@@ -36786,7 +36800,7 @@
         <v>13</v>
       </c>
       <c r="I932" t="n">
-        <v>12.06</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="933">
@@ -36864,7 +36878,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="n">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935">
@@ -36903,7 +36917,7 @@
         <v>3</v>
       </c>
       <c r="I935" t="n">
-        <v>7.35</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="936">
@@ -36942,7 +36956,7 @@
         <v>22</v>
       </c>
       <c r="I936" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="937">
@@ -37020,7 +37034,7 @@
         <v>12</v>
       </c>
       <c r="I938" t="n">
-        <v>4.42</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="939">
@@ -37098,7 +37112,7 @@
         <v>1</v>
       </c>
       <c r="I940" t="n">
-        <v>17.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="941">
@@ -37137,7 +37151,7 @@
         <v>2</v>
       </c>
       <c r="I941" t="n">
-        <v>23.08</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="942">
@@ -37215,7 +37229,7 @@
         <v>2</v>
       </c>
       <c r="I943" t="n">
-        <v>13.04</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="944">
@@ -37254,7 +37268,7 @@
         <v>4</v>
       </c>
       <c r="I944" t="n">
-        <v>13.85</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="945">
@@ -37293,7 +37307,7 @@
         <v>5</v>
       </c>
       <c r="I945" t="n">
-        <v>6.38</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="946">
@@ -37371,7 +37385,7 @@
         <v>6</v>
       </c>
       <c r="I947" t="n">
-        <v>13.19</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="948">
@@ -37410,7 +37424,7 @@
         <v>13</v>
       </c>
       <c r="I948" t="n">
-        <v>6.3</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="949">
@@ -37527,7 +37541,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="n">
-        <v>10.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -37605,7 +37619,7 @@
         <v>3</v>
       </c>
       <c r="I953" t="n">
-        <v>8</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="954">
@@ -37683,7 +37697,7 @@
         <v>11</v>
       </c>
       <c r="I955" t="n">
-        <v>16.13</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="956">
@@ -37800,7 +37814,7 @@
         <v>16</v>
       </c>
       <c r="I958" t="n">
-        <v>3.47</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="959">
@@ -37839,7 +37853,7 @@
         <v>1</v>
       </c>
       <c r="I959" t="n">
-        <v>75</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="960">
@@ -37878,7 +37892,7 @@
         <v>10</v>
       </c>
       <c r="I960" t="n">
-        <v>4.52</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="961">
@@ -37917,7 +37931,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -37956,7 +37970,7 @@
         <v>1</v>
       </c>
       <c r="I962" t="n">
-        <v>6.67</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="963">
@@ -38073,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -38112,7 +38126,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -38151,7 +38165,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="n">
-        <v>13.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -38190,7 +38204,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -38229,7 +38243,7 @@
         <v>1</v>
       </c>
       <c r="I969" t="n">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="970">
@@ -38268,7 +38282,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -38346,7 +38360,7 @@
         <v>2</v>
       </c>
       <c r="I972" t="n">
-        <v>25.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="973">
@@ -38385,7 +38399,7 @@
         <v>3</v>
       </c>
       <c r="I973" t="n">
-        <v>10.6</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="974">
@@ -38502,7 +38516,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="n">
-        <v>21.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -38580,7 +38594,7 @@
         <v>1</v>
       </c>
       <c r="I978" t="n">
-        <v>2.29</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="979">
@@ -38619,7 +38633,7 @@
         <v>5</v>
       </c>
       <c r="I979" t="n">
-        <v>3.1</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="980">
@@ -38814,7 +38828,7 @@
         <v>6</v>
       </c>
       <c r="I984" t="n">
-        <v>6.25</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="985">
@@ -38853,7 +38867,7 @@
         <v>3</v>
       </c>
       <c r="I985" t="n">
-        <v>7.89</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="986">
@@ -38931,7 +38945,7 @@
         <v>1</v>
       </c>
       <c r="I987" t="n">
-        <v>8.699999999999999</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="988">
@@ -38970,7 +38984,7 @@
         <v>3</v>
       </c>
       <c r="I988" t="n">
-        <v>6.94</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="989">
@@ -39048,7 +39062,7 @@
         <v>5</v>
       </c>
       <c r="I990" t="n">
-        <v>10.53</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="991">
@@ -39126,7 +39140,7 @@
         <v>10</v>
       </c>
       <c r="I992" t="n">
-        <v>3.42</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="993">
@@ -39204,7 +39218,7 @@
         <v>1</v>
       </c>
       <c r="I994" t="n">
-        <v>5.71</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="995">
@@ -39243,7 +39257,7 @@
         <v>3</v>
       </c>
       <c r="I995" t="n">
-        <v>5.56</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="996">
@@ -39281,9 +39295,7 @@
       <c r="H996" t="n">
         <v>0</v>
       </c>
-      <c r="I996" t="n">
-        <v>0</v>
-      </c>
+      <c r="I996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" t="n">
@@ -39321,7 +39333,7 @@
         <v>14</v>
       </c>
       <c r="I997" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="998">
@@ -39360,7 +39372,7 @@
         <v>2</v>
       </c>
       <c r="I998" t="n">
-        <v>9.710000000000001</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="999">
@@ -39399,7 +39411,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="n">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -39438,7 +39450,7 @@
         <v>3</v>
       </c>
       <c r="I1000" t="n">
-        <v>16.67</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="1001">
@@ -39555,7 +39567,7 @@
         <v>8</v>
       </c>
       <c r="I1003" t="n">
-        <v>12.63</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="1004">
@@ -39594,7 +39606,7 @@
         <v>1</v>
       </c>
       <c r="I1004" t="n">
-        <v>27.78</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="1005">
@@ -39672,7 +39684,7 @@
         <v>6</v>
       </c>
       <c r="I1006" t="n">
-        <v>3.94</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="1007">
@@ -39711,7 +39723,7 @@
         <v>1</v>
       </c>
       <c r="I1007" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1008">
@@ -39750,7 +39762,7 @@
         <v>9</v>
       </c>
       <c r="I1008" t="n">
-        <v>10.23</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="1009">
@@ -39789,7 +39801,7 @@
         <v>13</v>
       </c>
       <c r="I1009" t="n">
-        <v>7.25</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="1010">
@@ -39906,7 +39918,7 @@
         <v>1</v>
       </c>
       <c r="I1012" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1013">
@@ -39945,7 +39957,7 @@
         <v>6</v>
       </c>
       <c r="I1013" t="n">
-        <v>10.18</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="1014">
@@ -40023,7 +40035,7 @@
         <v>9</v>
       </c>
       <c r="I1015" t="n">
-        <v>3.81</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="1016">
@@ -40101,7 +40113,7 @@
         <v>1</v>
       </c>
       <c r="I1017" t="n">
-        <v>2.21</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="1018">
@@ -40140,7 +40152,7 @@
         <v>3</v>
       </c>
       <c r="I1018" t="n">
-        <v>2.86</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1019">
@@ -40257,7 +40269,7 @@
         <v>2</v>
       </c>
       <c r="I1021" t="n">
-        <v>4.35</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="1022">
@@ -40374,7 +40386,7 @@
         <v>10</v>
       </c>
       <c r="I1024" t="n">
-        <v>4.42</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="1025">
@@ -40413,7 +40425,7 @@
         <v>4</v>
       </c>
       <c r="I1025" t="n">
-        <v>17.14</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="1026">
@@ -40530,7 +40542,7 @@
         <v>2</v>
       </c>
       <c r="I1028" t="n">
-        <v>2.63</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1029">
@@ -40569,7 +40581,7 @@
         <v>1</v>
       </c>
       <c r="I1029" t="n">
-        <v>9.76</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="1030">
@@ -40608,7 +40620,7 @@
         <v>12</v>
       </c>
       <c r="I1030" t="n">
-        <v>4.69</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="1031">
@@ -40686,7 +40698,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033">
@@ -40764,7 +40776,7 @@
         <v>13</v>
       </c>
       <c r="I1034" t="n">
-        <v>4.99</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="1035">
@@ -40803,7 +40815,7 @@
         <v>39</v>
       </c>
       <c r="I1035" t="n">
-        <v>7.93</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="1036">
@@ -40842,7 +40854,7 @@
         <v>3</v>
       </c>
       <c r="I1036" t="n">
-        <v>7.69</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="1037">
@@ -40881,7 +40893,7 @@
         <v>11</v>
       </c>
       <c r="I1037" t="n">
-        <v>3.34</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="1038">
@@ -40920,7 +40932,7 @@
         <v>3</v>
       </c>
       <c r="I1038" t="n">
-        <v>6.74</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="1039">
@@ -40958,9 +40970,7 @@
       <c r="H1039" t="n">
         <v>0</v>
       </c>
-      <c r="I1039" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1039" t="inlineStr"/>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
@@ -40998,7 +41008,7 @@
         <v>2</v>
       </c>
       <c r="I1040" t="n">
-        <v>4.12</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="1041">
@@ -41037,7 +41047,7 @@
         <v>1</v>
       </c>
       <c r="I1041" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1042">
@@ -41076,7 +41086,7 @@
         <v>3</v>
       </c>
       <c r="I1042" t="n">
-        <v>8.16</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="1043">
@@ -41115,7 +41125,7 @@
         <v>1</v>
       </c>
       <c r="I1043" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1044">
@@ -41154,7 +41164,7 @@
         <v>20</v>
       </c>
       <c r="I1044" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="1045">
@@ -41193,7 +41203,7 @@
         <v>2</v>
       </c>
       <c r="I1045" t="n">
-        <v>13.79</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="1046">
@@ -41232,7 +41242,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047">
@@ -41310,7 +41320,7 @@
         <v>4</v>
       </c>
       <c r="I1048" t="n">
-        <v>11.76</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1049">
@@ -41349,7 +41359,7 @@
         <v>4</v>
       </c>
       <c r="I1049" t="n">
-        <v>9.09</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="1050">
@@ -41388,7 +41398,7 @@
         <v>9</v>
       </c>
       <c r="I1050" t="n">
-        <v>12.99</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="1051">
@@ -41427,7 +41437,7 @@
         <v>7</v>
       </c>
       <c r="I1051" t="n">
-        <v>10.81</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="1052">
@@ -41505,7 +41515,7 @@
         <v>2</v>
       </c>
       <c r="I1053" t="n">
-        <v>11.9</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1054">
@@ -41544,7 +41554,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="n">
-        <v>27.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055">
@@ -41583,7 +41593,7 @@
         <v>5</v>
       </c>
       <c r="I1055" t="n">
-        <v>7.34</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="1056">
@@ -41622,7 +41632,7 @@
         <v>3</v>
       </c>
       <c r="I1056" t="n">
-        <v>7.55</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="1057">
@@ -41661,7 +41671,7 @@
         <v>3</v>
       </c>
       <c r="I1057" t="n">
-        <v>9.5</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="1058">
@@ -41700,7 +41710,7 @@
         <v>5</v>
       </c>
       <c r="I1058" t="n">
-        <v>4.65</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="1059">
@@ -41739,7 +41749,7 @@
         <v>1</v>
       </c>
       <c r="I1059" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1060">
@@ -41778,7 +41788,7 @@
         <v>1</v>
       </c>
       <c r="I1060" t="n">
-        <v>12.43</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="1061">
@@ -41817,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="I1061" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1062">
@@ -41856,7 +41866,7 @@
         <v>10</v>
       </c>
       <c r="I1062" t="n">
-        <v>2.86</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="1063">
@@ -41895,7 +41905,7 @@
         <v>17</v>
       </c>
       <c r="I1063" t="n">
-        <v>3</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="1064">
@@ -41934,7 +41944,7 @@
         <v>9</v>
       </c>
       <c r="I1064" t="n">
-        <v>34.29</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="1065">
@@ -42012,7 +42022,7 @@
         <v>9</v>
       </c>
       <c r="I1066" t="n">
-        <v>24.56</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="1067">
@@ -42051,7 +42061,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -42090,7 +42100,7 @@
         <v>5</v>
       </c>
       <c r="I1068" t="n">
-        <v>12.63</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="1069">
@@ -42168,7 +42178,7 @@
         <v>11</v>
       </c>
       <c r="I1070" t="n">
-        <v>6.36</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="1071">
@@ -42363,7 +42373,7 @@
         <v>9</v>
       </c>
       <c r="I1075" t="n">
-        <v>28.57</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="1076">
@@ -42441,7 +42451,7 @@
         <v>1</v>
       </c>
       <c r="I1077" t="n">
-        <v>17.65</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1078">
@@ -42480,7 +42490,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="n">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079">
@@ -42519,7 +42529,7 @@
         <v>6</v>
       </c>
       <c r="I1079" t="n">
-        <v>6.78</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="1080">
@@ -42558,7 +42568,7 @@
         <v>1</v>
       </c>
       <c r="I1080" t="n">
-        <v>15.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="1081">
@@ -42596,8 +42606,10 @@
       <c r="H1081" t="n">
         <v>1</v>
       </c>
-      <c r="I1081" t="n">
-        <v>0</v>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1082">
@@ -42635,8 +42647,10 @@
       <c r="H1082" t="n">
         <v>2</v>
       </c>
-      <c r="I1082" t="n">
-        <v>0</v>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1083">
@@ -42674,8 +42688,10 @@
       <c r="H1083" t="n">
         <v>2</v>
       </c>
-      <c r="I1083" t="n">
-        <v>0</v>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1084">
@@ -42714,7 +42730,7 @@
         <v>10</v>
       </c>
       <c r="I1084" t="n">
-        <v>3.85</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="1085">
@@ -42831,7 +42847,7 @@
         <v>8</v>
       </c>
       <c r="I1087" t="n">
-        <v>7.74</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1088">
@@ -42870,7 +42886,7 @@
         <v>3</v>
       </c>
       <c r="I1088" t="n">
-        <v>16.67</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="1089">
@@ -42987,7 +43003,7 @@
         <v>3</v>
       </c>
       <c r="I1091" t="n">
-        <v>31.03</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="1092">
@@ -43026,7 +43042,7 @@
         <v>2</v>
       </c>
       <c r="I1092" t="n">
-        <v>10.71</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="1093">
@@ -43104,7 +43120,7 @@
         <v>8</v>
       </c>
       <c r="I1094" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="1095">
@@ -43143,7 +43159,7 @@
         <v>6</v>
       </c>
       <c r="I1095" t="n">
-        <v>12.59</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="1096">
@@ -43182,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="I1096" t="n">
-        <v>4.85</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="1097">
@@ -43221,7 +43237,7 @@
         <v>6</v>
       </c>
       <c r="I1097" t="n">
-        <v>15.13</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="1098">
@@ -43260,7 +43276,7 @@
         <v>10</v>
       </c>
       <c r="I1098" t="n">
-        <v>23.6</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="1099">
@@ -43299,7 +43315,7 @@
         <v>1</v>
       </c>
       <c r="I1099" t="n">
-        <v>21.88</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="1100">
@@ -43338,7 +43354,7 @@
         <v>5</v>
       </c>
       <c r="I1100" t="n">
-        <v>12.12</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="1101">
@@ -43377,7 +43393,7 @@
         <v>8</v>
       </c>
       <c r="I1101" t="n">
-        <v>12.75</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="1102">
@@ -43416,7 +43432,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -43455,7 +43471,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -43494,7 +43510,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105">
@@ -43572,7 +43588,7 @@
         <v>11</v>
       </c>
       <c r="I1106" t="n">
-        <v>7.04</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="1107">
@@ -43611,7 +43627,7 @@
         <v>5</v>
       </c>
       <c r="I1107" t="n">
-        <v>5.98</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="1108">
@@ -43650,7 +43666,7 @@
         <v>3</v>
       </c>
       <c r="I1108" t="n">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="1109">
@@ -43689,7 +43705,7 @@
         <v>2</v>
       </c>
       <c r="I1109" t="n">
-        <v>31.58</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="1110">
@@ -43884,7 +43900,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115">
@@ -44001,7 +44017,7 @@
         <v>4</v>
       </c>
       <c r="I1117" t="n">
-        <v>4.46</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="1118">
@@ -44157,7 +44173,7 @@
         <v>10</v>
       </c>
       <c r="I1121" t="n">
-        <v>3.38</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="1122">
@@ -44235,7 +44251,7 @@
         <v>3</v>
       </c>
       <c r="I1123" t="n">
-        <v>16.67</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="1124">
@@ -44274,7 +44290,7 @@
         <v>10</v>
       </c>
       <c r="I1124" t="n">
-        <v>7.26</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="1125">
@@ -44313,7 +44329,7 @@
         <v>17</v>
       </c>
       <c r="I1125" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="1126">
@@ -44391,7 +44407,7 @@
         <v>4</v>
       </c>
       <c r="I1127" t="n">
-        <v>2.77</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="1128">
@@ -44508,7 +44524,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131">
@@ -44586,7 +44602,7 @@
         <v>10</v>
       </c>
       <c r="I1132" t="n">
-        <v>7.22</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="1133">
@@ -44664,7 +44680,7 @@
         <v>14</v>
       </c>
       <c r="I1134" t="n">
-        <v>4.71</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="1135">
@@ -44742,7 +44758,7 @@
         <v>7</v>
       </c>
       <c r="I1136" t="n">
-        <v>12.6</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="1137">
@@ -44820,7 +44836,7 @@
         <v>17</v>
       </c>
       <c r="I1138" t="n">
-        <v>21.83</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="1139">
@@ -44859,7 +44875,7 @@
         <v>14</v>
       </c>
       <c r="I1139" t="n">
-        <v>9.140000000000001</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="1140">
@@ -44937,7 +44953,7 @@
         <v>10</v>
       </c>
       <c r="I1141" t="n">
-        <v>11.11</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="1142">
@@ -44976,7 +44992,7 @@
         <v>16</v>
       </c>
       <c r="I1142" t="n">
-        <v>10.07</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="1143">
@@ -45015,7 +45031,7 @@
         <v>1</v>
       </c>
       <c r="I1143" t="n">
-        <v>7.14</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="1144">
@@ -45054,7 +45070,7 @@
         <v>22</v>
       </c>
       <c r="I1144" t="n">
-        <v>8.44</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="1145">
@@ -45132,7 +45148,7 @@
         <v>19</v>
       </c>
       <c r="I1146" t="n">
-        <v>13.28</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="1147">
@@ -45210,7 +45226,7 @@
         <v>7</v>
       </c>
       <c r="I1148" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1149">
@@ -45327,7 +45343,7 @@
         <v>2</v>
       </c>
       <c r="I1151" t="n">
-        <v>6.19</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="1152">
@@ -45366,7 +45382,7 @@
         <v>7</v>
       </c>
       <c r="I1152" t="n">
-        <v>5.76</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="1153">
@@ -45405,7 +45421,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154">
@@ -45483,7 +45499,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156">
@@ -45599,8 +45615,10 @@
       <c r="H1158" t="n">
         <v>5</v>
       </c>
-      <c r="I1158" t="n">
-        <v>0</v>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1159">
@@ -45638,8 +45656,10 @@
       <c r="H1159" t="n">
         <v>3</v>
       </c>
-      <c r="I1159" t="n">
-        <v>0</v>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1160">
@@ -45677,8 +45697,10 @@
       <c r="H1160" t="n">
         <v>1</v>
       </c>
-      <c r="I1160" t="n">
-        <v>0</v>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1161">
@@ -45717,7 +45739,7 @@
         <v>1</v>
       </c>
       <c r="I1161" t="n">
-        <v>3.25</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="1162">
@@ -45756,7 +45778,7 @@
         <v>1</v>
       </c>
       <c r="I1162" t="n">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="1163">
@@ -45795,7 +45817,7 @@
         <v>2</v>
       </c>
       <c r="I1163" t="n">
-        <v>14.1</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="1164">
@@ -45834,7 +45856,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
@@ -45873,7 +45895,7 @@
         <v>1</v>
       </c>
       <c r="I1165" t="n">
-        <v>7.41</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1166">
@@ -45912,7 +45934,7 @@
         <v>3</v>
       </c>
       <c r="I1166" t="n">
-        <v>14.63</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="1167">
@@ -45951,7 +45973,7 @@
         <v>3</v>
       </c>
       <c r="I1167" t="n">
-        <v>25</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="1168">
@@ -45990,7 +46012,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169">
@@ -46029,7 +46051,7 @@
         <v>1</v>
       </c>
       <c r="I1169" t="n">
-        <v>12.77</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="1170">
@@ -46068,7 +46090,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -46107,7 +46129,7 @@
         <v>1</v>
       </c>
       <c r="I1171" t="n">
-        <v>5.71</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="1172">
@@ -46146,7 +46168,7 @@
         <v>5</v>
       </c>
       <c r="I1172" t="n">
-        <v>9.48</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1173">
@@ -46185,7 +46207,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174">
@@ -46224,7 +46246,7 @@
         <v>3</v>
       </c>
       <c r="I1174" t="n">
-        <v>7.75</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="1175">
@@ -46263,7 +46285,7 @@
         <v>7</v>
       </c>
       <c r="I1175" t="n">
-        <v>2.87</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="1176">
@@ -46302,7 +46324,7 @@
         <v>12</v>
       </c>
       <c r="I1176" t="n">
-        <v>8.640000000000001</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="1177">
@@ -46341,7 +46363,7 @@
         <v>3</v>
       </c>
       <c r="I1177" t="n">
-        <v>5.22</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="1178">
@@ -46497,7 +46519,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -46692,7 +46714,7 @@
         <v>2</v>
       </c>
       <c r="I1186" t="n">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="1187">
@@ -46731,7 +46753,7 @@
         <v>11</v>
       </c>
       <c r="I1187" t="n">
-        <v>5.06</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="1188">
@@ -46770,7 +46792,7 @@
         <v>1</v>
       </c>
       <c r="I1188" t="n">
-        <v>13.33</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="1189">
@@ -46848,7 +46870,7 @@
         <v>19</v>
       </c>
       <c r="I1190" t="n">
-        <v>4.06</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="1191">
@@ -46887,7 +46909,7 @@
         <v>2</v>
       </c>
       <c r="I1191" t="n">
-        <v>14.81</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1192">
@@ -46926,7 +46948,7 @@
         <v>10</v>
       </c>
       <c r="I1192" t="n">
-        <v>7.43</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="1193">
@@ -46965,7 +46987,7 @@
         <v>1</v>
       </c>
       <c r="I1193" t="n">
-        <v>14.29</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1194">
@@ -47004,7 +47026,7 @@
         <v>2</v>
       </c>
       <c r="I1194" t="n">
-        <v>11.59</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="1195">
@@ -47043,7 +47065,7 @@
         <v>1</v>
       </c>
       <c r="I1195" t="n">
-        <v>6.98</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="1196">
@@ -47082,7 +47104,7 @@
         <v>0</v>
       </c>
       <c r="I1196" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -47121,7 +47143,7 @@
         <v>1</v>
       </c>
       <c r="I1197" t="n">
-        <v>10.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1198">
@@ -47160,7 +47182,7 @@
         <v>4</v>
       </c>
       <c r="I1198" t="n">
-        <v>40</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="1199">
@@ -47199,7 +47221,7 @@
         <v>4</v>
       </c>
       <c r="I1199" t="n">
-        <v>23.81</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1200">
@@ -47238,7 +47260,7 @@
         <v>1</v>
       </c>
       <c r="I1200" t="n">
-        <v>10</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="1201">
@@ -47277,7 +47299,7 @@
         <v>0</v>
       </c>
       <c r="I1201" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -47316,7 +47338,7 @@
         <v>2</v>
       </c>
       <c r="I1202" t="n">
-        <v>9.84</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="1203">
@@ -47355,7 +47377,7 @@
         <v>1</v>
       </c>
       <c r="I1203" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="1204">
@@ -47394,7 +47416,7 @@
         <v>1</v>
       </c>
       <c r="I1204" t="n">
-        <v>8.199999999999999</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1205">
@@ -47472,7 +47494,7 @@
         <v>2</v>
       </c>
       <c r="I1206" t="n">
-        <v>58.82</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="1207">
@@ -47511,7 +47533,7 @@
         <v>2</v>
       </c>
       <c r="I1207" t="n">
-        <v>8.51</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="1208">
@@ -47550,7 +47572,7 @@
         <v>11</v>
       </c>
       <c r="I1208" t="n">
-        <v>15.38</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="1209">
@@ -47589,7 +47611,7 @@
         <v>21</v>
       </c>
       <c r="I1209" t="n">
-        <v>4.48</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="1210">
@@ -47628,7 +47650,7 @@
         <v>1</v>
       </c>
       <c r="I1210" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1211">
@@ -47667,7 +47689,7 @@
         <v>0</v>
       </c>
       <c r="I1211" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -47706,7 +47728,7 @@
         <v>6</v>
       </c>
       <c r="I1212" t="n">
-        <v>10.2</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1213">
@@ -47745,7 +47767,7 @@
         <v>7</v>
       </c>
       <c r="I1213" t="n">
-        <v>16.81</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="1214">
@@ -47784,7 +47806,7 @@
         <v>4</v>
       </c>
       <c r="I1214" t="n">
-        <v>11.9</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1215">
@@ -47823,7 +47845,7 @@
         <v>0</v>
       </c>
       <c r="I1215" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -47901,7 +47923,7 @@
         <v>11</v>
       </c>
       <c r="I1217" t="n">
-        <v>14.44</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="1218">
@@ -47940,7 +47962,7 @@
         <v>31</v>
       </c>
       <c r="I1218" t="n">
-        <v>23.35</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="1219">
@@ -47979,7 +48001,7 @@
         <v>19</v>
       </c>
       <c r="I1219" t="n">
-        <v>25.21</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="1220">
@@ -48057,7 +48079,7 @@
         <v>2</v>
       </c>
       <c r="I1221" t="n">
-        <v>6.19</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="1222">
@@ -48096,7 +48118,7 @@
         <v>4</v>
       </c>
       <c r="I1222" t="n">
-        <v>15.38</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="1223">
@@ -48213,7 +48235,7 @@
         <v>2</v>
       </c>
       <c r="I1225" t="n">
-        <v>10.34</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="1226">
@@ -48330,7 +48352,7 @@
         <v>6</v>
       </c>
       <c r="I1228" t="n">
-        <v>21.28</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="1229">
@@ -48408,7 +48430,7 @@
         <v>6</v>
       </c>
       <c r="I1230" t="n">
-        <v>4.67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1231">
@@ -48447,7 +48469,7 @@
         <v>0</v>
       </c>
       <c r="I1231" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -48486,7 +48508,7 @@
         <v>13</v>
       </c>
       <c r="I1232" t="n">
-        <v>13.94</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="1233">
@@ -48564,7 +48586,7 @@
         <v>13</v>
       </c>
       <c r="I1234" t="n">
-        <v>12.82</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="1235">
@@ -48603,7 +48625,7 @@
         <v>2</v>
       </c>
       <c r="I1235" t="n">
-        <v>13.64</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="1236">
@@ -48642,7 +48664,7 @@
         <v>0</v>
       </c>
       <c r="I1236" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -48681,7 +48703,7 @@
         <v>3</v>
       </c>
       <c r="I1237" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="1238">
@@ -48798,7 +48820,7 @@
         <v>14</v>
       </c>
       <c r="I1240" t="n">
-        <v>7.92</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="1241">
@@ -48876,7 +48898,7 @@
         <v>10</v>
       </c>
       <c r="I1242" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="1243">
@@ -48915,7 +48937,7 @@
         <v>1</v>
       </c>
       <c r="I1243" t="n">
-        <v>26.53</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1244">
@@ -48954,7 +48976,7 @@
         <v>0</v>
       </c>
       <c r="I1244" t="n">
-        <v>18.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245">
@@ -48993,7 +49015,7 @@
         <v>1</v>
       </c>
       <c r="I1245" t="n">
-        <v>9.41</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="1246">
@@ -49032,7 +49054,7 @@
         <v>3</v>
       </c>
       <c r="I1246" t="n">
-        <v>10</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="1247">
@@ -49071,7 +49093,7 @@
         <v>6</v>
       </c>
       <c r="I1247" t="n">
-        <v>10</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="1248">
@@ -49227,7 +49249,7 @@
         <v>33</v>
       </c>
       <c r="I1251" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="1252">
@@ -49266,7 +49288,7 @@
         <v>12</v>
       </c>
       <c r="I1252" t="n">
-        <v>10.85</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="1253">
@@ -49305,7 +49327,7 @@
         <v>8</v>
       </c>
       <c r="I1253" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="1254">
@@ -49383,7 +49405,7 @@
         <v>6</v>
       </c>
       <c r="I1255" t="n">
-        <v>3.11</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="1256">
@@ -49422,7 +49444,7 @@
         <v>18</v>
       </c>
       <c r="I1256" t="n">
-        <v>6.32</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="1257">
@@ -49500,7 +49522,7 @@
         <v>6</v>
       </c>
       <c r="I1258" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="1259">
@@ -49539,7 +49561,7 @@
         <v>8</v>
       </c>
       <c r="I1259" t="n">
-        <v>8.82</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="1260">
@@ -49578,7 +49600,7 @@
         <v>12</v>
       </c>
       <c r="I1260" t="n">
-        <v>4.17</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="1261">
@@ -49695,7 +49717,7 @@
         <v>11</v>
       </c>
       <c r="I1263" t="n">
-        <v>8.74</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="1264">
@@ -49734,7 +49756,7 @@
         <v>25</v>
       </c>
       <c r="I1264" t="n">
-        <v>11.98</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="1265">
@@ -49773,7 +49795,7 @@
         <v>27</v>
       </c>
       <c r="I1265" t="n">
-        <v>7.79</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="1266">
@@ -49851,7 +49873,7 @@
         <v>3</v>
       </c>
       <c r="I1267" t="n">
-        <v>14.71</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="1268">
@@ -49928,8 +49950,10 @@
       <c r="H1269" t="n">
         <v>1</v>
       </c>
-      <c r="I1269" t="n">
-        <v>0</v>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1270">
@@ -49968,7 +49992,7 @@
         <v>16</v>
       </c>
       <c r="I1270" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="1271">
@@ -50007,7 +50031,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="n">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272">
@@ -50046,7 +50070,7 @@
         <v>2</v>
       </c>
       <c r="I1272" t="n">
-        <v>13.85</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="1273">
@@ -50085,7 +50109,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -50124,7 +50148,7 @@
         <v>2</v>
       </c>
       <c r="I1274" t="n">
-        <v>18.18</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="1275">
@@ -50202,7 +50226,7 @@
         <v>32</v>
       </c>
       <c r="I1276" t="n">
-        <v>2.96</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="1277">
@@ -50241,7 +50265,7 @@
         <v>8</v>
       </c>
       <c r="I1277" t="n">
-        <v>10.8</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="1278">
@@ -50319,7 +50343,7 @@
         <v>0</v>
       </c>
       <c r="I1279" t="n">
-        <v>13.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280">
@@ -50397,7 +50421,7 @@
         <v>4</v>
       </c>
       <c r="I1281" t="n">
-        <v>7.3</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="1282">
@@ -50475,7 +50499,7 @@
         <v>4</v>
       </c>
       <c r="I1283" t="n">
-        <v>10.3</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="1284">
@@ -50514,7 +50538,7 @@
         <v>17</v>
       </c>
       <c r="I1284" t="n">
-        <v>7.69</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="1285">
@@ -50553,7 +50577,7 @@
         <v>0</v>
       </c>
       <c r="I1285" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -50630,9 +50654,7 @@
       <c r="H1287" t="n">
         <v>0</v>
       </c>
-      <c r="I1287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1287" t="inlineStr"/>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
@@ -50670,7 +50692,7 @@
         <v>5</v>
       </c>
       <c r="I1288" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="1289">
@@ -50709,7 +50731,7 @@
         <v>9</v>
       </c>
       <c r="I1289" t="n">
-        <v>50</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="1290">
@@ -50748,7 +50770,7 @@
         <v>2</v>
       </c>
       <c r="I1290" t="n">
-        <v>41.94</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="1291">
@@ -50786,9 +50808,7 @@
       <c r="H1291" t="n">
         <v>0</v>
       </c>
-      <c r="I1291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1291" t="inlineStr"/>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
@@ -50903,9 +50923,7 @@
       <c r="H1294" t="n">
         <v>0</v>
       </c>
-      <c r="I1294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1294" t="inlineStr"/>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
@@ -50942,9 +50960,7 @@
       <c r="H1295" t="n">
         <v>0</v>
       </c>
-      <c r="I1295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1295" t="inlineStr"/>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
@@ -50982,7 +50998,7 @@
         <v>7</v>
       </c>
       <c r="I1296" t="n">
-        <v>68.97</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="1297">
@@ -51060,7 +51076,7 @@
         <v>0</v>
       </c>
       <c r="I1298" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -51099,7 +51115,7 @@
         <v>3</v>
       </c>
       <c r="I1299" t="n">
-        <v>4.15</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="1300">
@@ -51138,7 +51154,7 @@
         <v>25</v>
       </c>
       <c r="I1300" t="n">
-        <v>11.78</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="1301">
@@ -51216,7 +51232,7 @@
         <v>16</v>
       </c>
       <c r="I1302" t="n">
-        <v>2.18</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="1303">
@@ -51255,7 +51271,7 @@
         <v>6</v>
       </c>
       <c r="I1303" t="n">
-        <v>4.86</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="1304">
@@ -51294,7 +51310,7 @@
         <v>2</v>
       </c>
       <c r="I1304" t="n">
-        <v>4.41</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="1305">
@@ -51333,7 +51349,7 @@
         <v>0</v>
       </c>
       <c r="I1305" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306">
@@ -51411,7 +51427,7 @@
         <v>6</v>
       </c>
       <c r="I1307" t="n">
-        <v>7.69</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="1308">
@@ -51489,7 +51505,7 @@
         <v>8</v>
       </c>
       <c r="I1309" t="n">
-        <v>6.67</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="1310">
@@ -51528,7 +51544,7 @@
         <v>5</v>
       </c>
       <c r="I1310" t="n">
-        <v>22.73</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="1311">
@@ -51567,7 +51583,7 @@
         <v>10</v>
       </c>
       <c r="I1311" t="n">
-        <v>7.59</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="1312">
@@ -51606,7 +51622,7 @@
         <v>2</v>
       </c>
       <c r="I1312" t="n">
-        <v>31.91</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="1313">
@@ -51645,7 +51661,7 @@
         <v>3</v>
       </c>
       <c r="I1313" t="n">
-        <v>12.7</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1314">
@@ -51684,7 +51700,7 @@
         <v>1</v>
       </c>
       <c r="I1314" t="n">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="1315">
@@ -51918,7 +51934,7 @@
         <v>23</v>
       </c>
       <c r="I1320" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="1321">
@@ -52035,7 +52051,7 @@
         <v>7</v>
       </c>
       <c r="I1323" t="n">
-        <v>6.1</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="1324">
@@ -52152,7 +52168,7 @@
         <v>1</v>
       </c>
       <c r="I1326" t="n">
-        <v>10.34</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="1327">
@@ -52191,7 +52207,7 @@
         <v>5</v>
       </c>
       <c r="I1327" t="n">
-        <v>19.23</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="1328">
@@ -52230,7 +52246,7 @@
         <v>4</v>
       </c>
       <c r="I1328" t="n">
-        <v>14.29</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="1329">
@@ -52308,7 +52324,7 @@
         <v>8</v>
       </c>
       <c r="I1330" t="n">
-        <v>5.58</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="1331">
@@ -52347,7 +52363,7 @@
         <v>0</v>
       </c>
       <c r="I1331" t="n">
-        <v>9.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -52386,7 +52402,7 @@
         <v>9</v>
       </c>
       <c r="I1332" t="n">
-        <v>7.78</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="1333">
@@ -52464,7 +52480,7 @@
         <v>17</v>
       </c>
       <c r="I1334" t="n">
-        <v>6.17</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1335">
@@ -52542,7 +52558,7 @@
         <v>0</v>
       </c>
       <c r="I1336" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -52659,7 +52675,7 @@
         <v>0</v>
       </c>
       <c r="I1339" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -52698,7 +52714,7 @@
         <v>0</v>
       </c>
       <c r="I1340" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341">
@@ -52737,7 +52753,7 @@
         <v>6</v>
       </c>
       <c r="I1341" t="n">
-        <v>8.91</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="1342">
@@ -52776,7 +52792,7 @@
         <v>5</v>
       </c>
       <c r="I1342" t="n">
-        <v>17.14</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="1343">
@@ -52893,7 +52909,7 @@
         <v>12</v>
       </c>
       <c r="I1345" t="n">
-        <v>12.27</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="1346">
@@ -52932,7 +52948,7 @@
         <v>8</v>
       </c>
       <c r="I1346" t="n">
-        <v>5.99</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="1347">
@@ -53010,7 +53026,7 @@
         <v>1</v>
       </c>
       <c r="I1348" t="n">
-        <v>13.04</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="1349">
@@ -53049,7 +53065,7 @@
         <v>6</v>
       </c>
       <c r="I1349" t="n">
-        <v>8.49</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="1350">
@@ -53088,7 +53104,7 @@
         <v>0</v>
       </c>
       <c r="I1350" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -53166,7 +53182,7 @@
         <v>9</v>
       </c>
       <c r="I1352" t="n">
-        <v>18.07</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="1353">
@@ -53205,7 +53221,7 @@
         <v>1</v>
       </c>
       <c r="I1353" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1354">
@@ -53283,7 +53299,7 @@
         <v>2</v>
       </c>
       <c r="I1355" t="n">
-        <v>14.29</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="1356">
@@ -53322,7 +53338,7 @@
         <v>9</v>
       </c>
       <c r="I1356" t="n">
-        <v>6.99</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="1357">
@@ -53361,7 +53377,7 @@
         <v>5</v>
       </c>
       <c r="I1357" t="n">
-        <v>8.16</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="1358">
@@ -53400,7 +53416,7 @@
         <v>8</v>
       </c>
       <c r="I1358" t="n">
-        <v>8.74</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="1359">
@@ -53439,7 +53455,7 @@
         <v>5</v>
       </c>
       <c r="I1359" t="n">
-        <v>9.210000000000001</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="1360">
@@ -53478,7 +53494,7 @@
         <v>13</v>
       </c>
       <c r="I1360" t="n">
-        <v>3.11</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="1361">
@@ -53517,7 +53533,7 @@
         <v>6</v>
       </c>
       <c r="I1361" t="n">
-        <v>7.32</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="1362">
@@ -53556,7 +53572,7 @@
         <v>0</v>
       </c>
       <c r="I1362" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363">
@@ -53595,7 +53611,7 @@
         <v>3</v>
       </c>
       <c r="I1363" t="n">
-        <v>7.61</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="1364">
@@ -53634,7 +53650,7 @@
         <v>2</v>
       </c>
       <c r="I1364" t="n">
-        <v>12.4</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="1365">
@@ -53673,7 +53689,7 @@
         <v>0</v>
       </c>
       <c r="I1365" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366">
@@ -53712,7 +53728,7 @@
         <v>3</v>
       </c>
       <c r="I1366" t="n">
-        <v>19.35</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="1367">
@@ -53751,7 +53767,7 @@
         <v>4</v>
       </c>
       <c r="I1367" t="n">
-        <v>4.67</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="1368">
@@ -53790,7 +53806,7 @@
         <v>13</v>
       </c>
       <c r="I1368" t="n">
-        <v>13.33</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="1369">
@@ -53829,7 +53845,7 @@
         <v>0</v>
       </c>
       <c r="I1369" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370">
@@ -53907,7 +53923,7 @@
         <v>8</v>
       </c>
       <c r="I1371" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="1372">
@@ -53945,9 +53961,7 @@
       <c r="H1372" t="n">
         <v>0</v>
       </c>
-      <c r="I1372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1372" t="inlineStr"/>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
@@ -54024,7 +54038,7 @@
         <v>0</v>
       </c>
       <c r="I1374" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -54063,7 +54077,7 @@
         <v>11</v>
       </c>
       <c r="I1375" t="n">
-        <v>3.36</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="1376">
@@ -54179,9 +54193,7 @@
       <c r="H1378" t="n">
         <v>0</v>
       </c>
-      <c r="I1378" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1378" t="inlineStr"/>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
@@ -54219,7 +54231,7 @@
         <v>6</v>
       </c>
       <c r="I1379" t="n">
-        <v>8.94</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="1380">
@@ -54258,7 +54270,7 @@
         <v>4</v>
       </c>
       <c r="I1380" t="n">
-        <v>20.63</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="1381">
@@ -54297,7 +54309,7 @@
         <v>4</v>
       </c>
       <c r="I1381" t="n">
-        <v>5.43</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="1382">
@@ -54336,7 +54348,7 @@
         <v>2</v>
       </c>
       <c r="I1382" t="n">
-        <v>10.81</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="1383">
@@ -54453,7 +54465,7 @@
         <v>7</v>
       </c>
       <c r="I1385" t="n">
-        <v>3.11</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="1386">
@@ -54492,7 +54504,7 @@
         <v>16</v>
       </c>
       <c r="I1386" t="n">
-        <v>5.65</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="1387">
@@ -54569,8 +54581,10 @@
       <c r="H1388" t="n">
         <v>2</v>
       </c>
-      <c r="I1388" t="n">
-        <v>0</v>
+      <c r="I1388" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1389">
@@ -54609,7 +54623,7 @@
         <v>2</v>
       </c>
       <c r="I1389" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1390">
@@ -54647,8 +54661,10 @@
       <c r="H1390" t="n">
         <v>1</v>
       </c>
-      <c r="I1390" t="n">
-        <v>0</v>
+      <c r="I1390" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1391">
@@ -54726,7 +54742,7 @@
         <v>2</v>
       </c>
       <c r="I1392" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1393">
@@ -54765,7 +54781,7 @@
         <v>1</v>
       </c>
       <c r="I1393" t="n">
-        <v>5.13</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="1394">
@@ -54803,8 +54819,10 @@
       <c r="H1394" t="n">
         <v>3</v>
       </c>
-      <c r="I1394" t="n">
-        <v>0</v>
+      <c r="I1394" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1395">
@@ -55154,8 +55172,10 @@
       <c r="H1403" t="n">
         <v>1</v>
       </c>
-      <c r="I1403" t="n">
-        <v>0</v>
+      <c r="I1403" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1404">
@@ -55233,7 +55253,7 @@
         <v>2</v>
       </c>
       <c r="I1405" t="n">
-        <v>6.82</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="1406">
@@ -55271,8 +55291,10 @@
       <c r="H1406" t="n">
         <v>5</v>
       </c>
-      <c r="I1406" t="n">
-        <v>0</v>
+      <c r="I1406" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1407">
@@ -55388,8 +55410,10 @@
       <c r="H1409" t="n">
         <v>1</v>
       </c>
-      <c r="I1409" t="n">
-        <v>0</v>
+      <c r="I1409" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1410">
@@ -55506,7 +55530,7 @@
         <v>3</v>
       </c>
       <c r="I1412" t="n">
-        <v>8.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="1413">
@@ -55544,8 +55568,10 @@
       <c r="H1413" t="n">
         <v>2</v>
       </c>
-      <c r="I1413" t="n">
-        <v>0</v>
+      <c r="I1413" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1414">
@@ -55661,9 +55687,7 @@
       <c r="H1416" t="n">
         <v>0</v>
       </c>
-      <c r="I1416" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1416" t="inlineStr"/>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
@@ -55779,7 +55803,7 @@
         <v>1</v>
       </c>
       <c r="I1419" t="n">
-        <v>10</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="1420">
@@ -55817,8 +55841,10 @@
       <c r="H1420" t="n">
         <v>1</v>
       </c>
-      <c r="I1420" t="n">
-        <v>0</v>
+      <c r="I1420" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1421">
@@ -55896,7 +55922,7 @@
         <v>1</v>
       </c>
       <c r="I1422" t="n">
-        <v>2.56</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="1423">
@@ -55973,8 +55999,10 @@
       <c r="H1424" t="n">
         <v>1</v>
       </c>
-      <c r="I1424" t="n">
-        <v>0</v>
+      <c r="I1424" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1425">
@@ -56051,8 +56079,10 @@
       <c r="H1426" t="n">
         <v>1</v>
       </c>
-      <c r="I1426" t="n">
-        <v>0</v>
+      <c r="I1426" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1427">
@@ -56168,8 +56198,10 @@
       <c r="H1429" t="n">
         <v>1</v>
       </c>
-      <c r="I1429" t="n">
-        <v>0</v>
+      <c r="I1429" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1430">
@@ -56247,7 +56279,7 @@
         <v>1</v>
       </c>
       <c r="I1431" t="n">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="1432">
@@ -56364,7 +56396,7 @@
         <v>2</v>
       </c>
       <c r="I1434" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1435">
@@ -56441,9 +56473,7 @@
       <c r="H1436" t="n">
         <v>0</v>
       </c>
-      <c r="I1436" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1436" t="inlineStr"/>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
@@ -56480,9 +56510,7 @@
       <c r="H1437" t="n">
         <v>0</v>
       </c>
-      <c r="I1437" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1437" t="inlineStr"/>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
@@ -56558,8 +56586,10 @@
       <c r="H1439" t="n">
         <v>1</v>
       </c>
-      <c r="I1439" t="n">
-        <v>0</v>
+      <c r="I1439" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1440">
@@ -56714,8 +56744,10 @@
       <c r="H1443" t="n">
         <v>1</v>
       </c>
-      <c r="I1443" t="n">
-        <v>0</v>
+      <c r="I1443" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1444">
@@ -56870,8 +56902,10 @@
       <c r="H1447" t="n">
         <v>1</v>
       </c>
-      <c r="I1447" t="n">
-        <v>0</v>
+      <c r="I1447" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1448">
@@ -56948,8 +56982,10 @@
       <c r="H1449" t="n">
         <v>1</v>
       </c>
-      <c r="I1449" t="n">
-        <v>0</v>
+      <c r="I1449" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1450">
@@ -57027,7 +57063,7 @@
         <v>0</v>
       </c>
       <c r="I1451" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -57105,7 +57141,7 @@
         <v>3</v>
       </c>
       <c r="I1453" t="n">
-        <v>8.640000000000001</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1454">
@@ -57183,7 +57219,7 @@
         <v>0</v>
       </c>
       <c r="I1455" t="n">
-        <v>17.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1456">
@@ -57261,7 +57297,7 @@
         <v>6</v>
       </c>
       <c r="I1457" t="n">
-        <v>9.41</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="1458">
@@ -57339,7 +57375,7 @@
         <v>12</v>
       </c>
       <c r="I1459" t="n">
-        <v>43.04</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="1460">
@@ -57378,7 +57414,7 @@
         <v>3</v>
       </c>
       <c r="I1460" t="n">
-        <v>14.89</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="1461">
@@ -57456,7 +57492,7 @@
         <v>6</v>
       </c>
       <c r="I1462" t="n">
-        <v>575</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1463">
@@ -57494,9 +57530,7 @@
       <c r="H1463" t="n">
         <v>0</v>
       </c>
-      <c r="I1463" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1463" t="inlineStr"/>
     </row>
     <row r="1464">
       <c r="A1464" t="n">
@@ -57533,8 +57567,10 @@
       <c r="H1464" t="n">
         <v>1</v>
       </c>
-      <c r="I1464" t="n">
-        <v>0</v>
+      <c r="I1464" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1465">
@@ -57572,8 +57608,10 @@
       <c r="H1465" t="n">
         <v>1</v>
       </c>
-      <c r="I1465" t="n">
-        <v>0</v>
+      <c r="I1465" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1466">
@@ -57690,7 +57728,7 @@
         <v>6</v>
       </c>
       <c r="I1468" t="n">
-        <v>11.36</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="1469">
@@ -57728,9 +57766,7 @@
       <c r="H1469" t="n">
         <v>0</v>
       </c>
-      <c r="I1469" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1469" t="inlineStr"/>
     </row>
     <row r="1470">
       <c r="A1470" t="n">
@@ -57807,7 +57843,7 @@
         <v>7</v>
       </c>
       <c r="I1471" t="n">
-        <v>6.2</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="1472">
@@ -57963,7 +57999,7 @@
         <v>6</v>
       </c>
       <c r="I1475" t="n">
-        <v>8.42</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="1476">
@@ -58002,7 +58038,7 @@
         <v>3</v>
       </c>
       <c r="I1476" t="n">
-        <v>5.38</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="1477">
@@ -58080,7 +58116,7 @@
         <v>3</v>
       </c>
       <c r="I1478" t="n">
-        <v>13.73</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1479">
@@ -58119,7 +58155,7 @@
         <v>6</v>
       </c>
       <c r="I1479" t="n">
-        <v>4.41</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="1480">
@@ -58157,9 +58193,7 @@
       <c r="H1480" t="n">
         <v>0</v>
       </c>
-      <c r="I1480" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1480" t="inlineStr"/>
     </row>
     <row r="1481">
       <c r="A1481" t="n">
@@ -58236,7 +58270,7 @@
         <v>14</v>
       </c>
       <c r="I1482" t="n">
-        <v>5.48</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="1483">
@@ -58275,7 +58309,7 @@
         <v>16</v>
       </c>
       <c r="I1483" t="n">
-        <v>4.57</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="1484">
@@ -58353,7 +58387,7 @@
         <v>8</v>
       </c>
       <c r="I1485" t="n">
-        <v>3.8</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="1486">
@@ -58392,7 +58426,7 @@
         <v>10</v>
       </c>
       <c r="I1486" t="n">
-        <v>5.24</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="1487">
@@ -58470,7 +58504,7 @@
         <v>3</v>
       </c>
       <c r="I1488" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="1489">
@@ -58508,9 +58542,7 @@
       <c r="H1489" t="n">
         <v>0</v>
       </c>
-      <c r="I1489" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1489" t="inlineStr"/>
     </row>
     <row r="1490">
       <c r="A1490" t="n">
@@ -58548,7 +58580,7 @@
         <v>1</v>
       </c>
       <c r="I1490" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1491">
@@ -58587,7 +58619,7 @@
         <v>15</v>
       </c>
       <c r="I1491" t="n">
-        <v>2.46</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1492">
@@ -58626,7 +58658,7 @@
         <v>0</v>
       </c>
       <c r="I1492" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493">
@@ -58665,7 +58697,7 @@
         <v>1</v>
       </c>
       <c r="I1493" t="n">
-        <v>3.77</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="1494">
@@ -58704,7 +58736,7 @@
         <v>3</v>
       </c>
       <c r="I1494" t="n">
-        <v>3.36</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="1495">
@@ -58782,7 +58814,7 @@
         <v>0</v>
       </c>
       <c r="I1496" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1497">
@@ -58860,7 +58892,7 @@
         <v>2</v>
       </c>
       <c r="I1498" t="n">
-        <v>4.35</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="1499">
@@ -58899,7 +58931,7 @@
         <v>0</v>
       </c>
       <c r="I1499" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1500">
@@ -58938,7 +58970,7 @@
         <v>3</v>
       </c>
       <c r="I1500" t="n">
-        <v>11.11</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="1501">
@@ -58977,7 +59009,7 @@
         <v>8</v>
       </c>
       <c r="I1501" t="n">
-        <v>3.86</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="1502">
@@ -59016,7 +59048,7 @@
         <v>1</v>
       </c>
       <c r="I1502" t="n">
-        <v>12.5</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="1503">
@@ -59055,7 +59087,7 @@
         <v>0</v>
       </c>
       <c r="I1503" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1504">
@@ -59094,7 +59126,7 @@
         <v>6</v>
       </c>
       <c r="I1504" t="n">
-        <v>9.17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1505">
@@ -59133,7 +59165,7 @@
         <v>8</v>
       </c>
       <c r="I1505" t="n">
-        <v>5.56</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="1506">
@@ -59211,7 +59243,7 @@
         <v>2</v>
       </c>
       <c r="I1507" t="n">
-        <v>2.78</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="1508">
@@ -59250,7 +59282,7 @@
         <v>0</v>
       </c>
       <c r="I1508" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509">
@@ -59289,7 +59321,7 @@
         <v>1</v>
       </c>
       <c r="I1509" t="n">
-        <v>9.029999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="1510">
@@ -59484,7 +59516,7 @@
         <v>1</v>
       </c>
       <c r="I1514" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1515">
@@ -59523,7 +59555,7 @@
         <v>1</v>
       </c>
       <c r="I1515" t="n">
-        <v>22.22</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="1516">
@@ -59562,7 +59594,7 @@
         <v>0</v>
       </c>
       <c r="I1516" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1517">
@@ -59601,7 +59633,7 @@
         <v>1</v>
       </c>
       <c r="I1517" t="n">
-        <v>28.57</v>
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>
